--- a/capiq_data/in_process_data/IQ98885.xlsx
+++ b/capiq_data/in_process_data/IQ98885.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE133F4-FB8E-4C76-B24A-F06DFD48F395}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A98322-E897-46F5-9257-64843777FFC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"e1831f4d-1ef5-49a3-a1a0-04df07fdf8b3"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"159f0734-fb3f-4690-bbdc-ff6d54913e0b"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>54.890999999999998</v>
+        <v>63.369</v>
       </c>
       <c r="D2">
-        <v>626.65099999999995</v>
+        <v>465.93</v>
       </c>
       <c r="E2">
-        <v>294.19200000000001</v>
+        <v>215.994</v>
       </c>
       <c r="F2">
-        <v>147.28399999999999</v>
+        <v>128.94800000000001</v>
       </c>
       <c r="G2">
-        <v>799.67700000000002</v>
+        <v>403.709</v>
       </c>
       <c r="H2">
-        <v>2225.91</v>
+        <v>1942.1120000000001</v>
       </c>
       <c r="I2">
-        <v>155.16300000000001</v>
+        <v>113.70099999999999</v>
       </c>
       <c r="J2">
-        <v>549.09900000000005</v>
+        <v>869.17499999999995</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>404.61</v>
+        <v>218.548</v>
       </c>
       <c r="O2">
-        <v>1216.9090000000001</v>
+        <v>1254.6880000000001</v>
       </c>
       <c r="P2">
-        <v>680.601</v>
+        <v>869.41399999999999</v>
       </c>
       <c r="Q2">
-        <v>23.736000000000001</v>
+        <v>-28.780999999999999</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="T2">
-        <v>1009.001</v>
+        <v>687.42399999999998</v>
       </c>
       <c r="U2">
-        <v>196.55600000000001</v>
+        <v>7.8920000000000003</v>
       </c>
       <c r="V2">
-        <v>138.87899999999999</v>
+        <v>100.497</v>
       </c>
       <c r="W2">
-        <v>-15.432</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-25.521000000000001</v>
+        <v>-335.66699999999997</v>
       </c>
       <c r="Y2">
-        <v>21.832000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>54.890999999999998</v>
+        <v>63.369</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>37.417000000000002</v>
+        <v>27.619</v>
       </c>
       <c r="D3">
-        <v>629.5</v>
+        <v>454.666</v>
       </c>
       <c r="E3">
-        <v>308.81599999999997</v>
+        <v>203.97900000000001</v>
       </c>
       <c r="F3">
-        <v>133.14099999999999</v>
+        <v>107.178</v>
       </c>
       <c r="G3">
-        <v>772.10400000000004</v>
+        <v>423.18200000000002</v>
       </c>
       <c r="H3">
-        <v>2220.9470000000001</v>
+        <v>1946.8230000000001</v>
       </c>
       <c r="I3">
-        <v>167.822</v>
+        <v>100.196</v>
       </c>
       <c r="J3">
-        <v>549.18600000000004</v>
+        <v>858.18499999999995</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-0.16300000000000001</v>
+        <v>-11.169</v>
       </c>
       <c r="N3">
-        <v>387.31099999999998</v>
+        <v>194.33199999999999</v>
       </c>
       <c r="O3">
-        <v>1200.451</v>
+        <v>1231.174</v>
       </c>
       <c r="P3">
-        <v>680.52499999999998</v>
+        <v>858.255</v>
       </c>
       <c r="Q3">
-        <v>-23.542000000000002</v>
+        <v>38.378999999999998</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1020.496</v>
+        <v>715.649</v>
       </c>
       <c r="U3">
-        <v>173.01400000000001</v>
+        <v>46.271000000000001</v>
       </c>
       <c r="V3">
-        <v>63.95</v>
+        <v>68.424999999999997</v>
       </c>
       <c r="W3">
-        <v>-15.351000000000001</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-21.004999999999999</v>
+        <v>-9.7059999999999995</v>
       </c>
       <c r="Y3">
-        <v>21.657</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>37.417000000000002</v>
+        <v>27.619</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>39.368000000000002</v>
+        <v>31.259</v>
       </c>
       <c r="D4">
-        <v>665.48099999999999</v>
+        <v>466.964</v>
       </c>
       <c r="E4">
-        <v>331.24900000000002</v>
+        <v>208.60499999999999</v>
       </c>
       <c r="F4">
-        <v>136.90100000000001</v>
+        <v>112.181</v>
       </c>
       <c r="G4">
-        <v>742.28800000000001</v>
+        <v>404.78100000000001</v>
       </c>
       <c r="H4">
-        <v>2259.181</v>
+        <v>1934.7819999999999</v>
       </c>
       <c r="I4">
-        <v>189.77799999999999</v>
+        <v>101.71899999999999</v>
       </c>
       <c r="J4">
-        <v>549.27300000000002</v>
+        <v>816.19600000000003</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>425.73500000000001</v>
+        <v>183.01900000000001</v>
       </c>
       <c r="O4">
-        <v>1237.9760000000001</v>
+        <v>1190.8030000000001</v>
       </c>
       <c r="P4">
-        <v>680.44600000000003</v>
+        <v>816.26599999999996</v>
       </c>
       <c r="Q4">
-        <v>-53.832999999999998</v>
+        <v>-30.582000000000001</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1021.205</v>
+        <v>743.97900000000004</v>
       </c>
       <c r="U4">
-        <v>119.181</v>
+        <v>15.689</v>
       </c>
       <c r="V4">
-        <v>101.233</v>
+        <v>57.438000000000002</v>
       </c>
       <c r="W4">
-        <v>-20.443999999999999</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-43.35</v>
+        <v>-44.529000000000003</v>
       </c>
       <c r="Y4">
-        <v>21.478999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>39.368000000000002</v>
+        <v>31.259</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>41.777000000000001</v>
+        <v>29.154</v>
       </c>
       <c r="D5">
-        <v>670.82399999999996</v>
+        <v>455.214</v>
       </c>
       <c r="E5">
-        <v>338.51600000000002</v>
+        <v>222.65199999999999</v>
       </c>
       <c r="F5">
-        <v>137.74700000000001</v>
+        <v>108.842</v>
       </c>
       <c r="G5">
-        <v>669.91099999999994</v>
+        <v>473.49700000000001</v>
       </c>
       <c r="H5">
-        <v>2232.7429999999999</v>
+        <v>2002.9090000000001</v>
       </c>
       <c r="I5">
-        <v>176.67699999999999</v>
+        <v>113.986</v>
       </c>
       <c r="J5">
-        <v>591.03</v>
+        <v>816.13599999999997</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>421.98</v>
+        <v>232.50299999999999</v>
       </c>
       <c r="O5">
-        <v>1259.192</v>
+        <v>1255.856</v>
       </c>
       <c r="P5">
-        <v>722.03399999999999</v>
+        <v>816.20600000000002</v>
       </c>
       <c r="Q5">
-        <v>-79.063999999999993</v>
+        <v>49.607999999999997</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>973.55100000000004</v>
+        <v>747.053</v>
       </c>
       <c r="U5">
-        <v>40.116999999999997</v>
+        <v>65.296999999999997</v>
       </c>
       <c r="V5">
-        <v>71.634</v>
+        <v>111.182</v>
       </c>
       <c r="W5">
-        <v>-20.257999999999999</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-67.754000000000005</v>
+        <v>-23.968</v>
       </c>
       <c r="Y5">
-        <v>21.297999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>41.777000000000001</v>
+        <v>29.154</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>39.465000000000003</v>
+        <v>18.385999999999999</v>
       </c>
       <c r="D6">
-        <v>654.30600000000004</v>
+        <v>413.11200000000002</v>
       </c>
       <c r="E6">
-        <v>319.988</v>
+        <v>170.17500000000001</v>
       </c>
       <c r="F6">
-        <v>134.15700000000001</v>
+        <v>89.736000000000004</v>
       </c>
       <c r="G6">
-        <v>812.06299999999999</v>
+        <v>448.21699999999998</v>
       </c>
       <c r="H6">
-        <v>2412.4989999999998</v>
+        <v>1971.78</v>
       </c>
       <c r="I6">
-        <v>154.85499999999999</v>
+        <v>93.873000000000005</v>
       </c>
       <c r="J6">
-        <v>793.44799999999998</v>
+        <v>795.16300000000001</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>376.5</v>
+        <v>191.89500000000001</v>
       </c>
       <c r="O6">
-        <v>1483.5889999999999</v>
+        <v>1201.9459999999999</v>
       </c>
       <c r="P6">
-        <v>879.10900000000004</v>
+        <v>795.21699999999998</v>
       </c>
       <c r="Q6">
-        <v>116.196</v>
+        <v>17.167999999999999</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>8300</v>
+        <v>7900</v>
       </c>
       <c r="T6">
-        <v>928.91</v>
+        <v>769.83399999999995</v>
       </c>
       <c r="U6">
-        <v>156.31299999999999</v>
+        <v>82.465000000000003</v>
       </c>
       <c r="V6">
-        <v>108.697</v>
+        <v>77.251999999999995</v>
       </c>
       <c r="W6">
-        <v>-19.959</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>96.516999999999996</v>
+        <v>-26.638999999999999</v>
       </c>
       <c r="Y6">
-        <v>21.114000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>39.465000000000003</v>
+        <v>18.385999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>17.844000000000001</v>
+        <v>9.6259999999999994</v>
       </c>
       <c r="D7">
-        <v>671.35699999999997</v>
+        <v>414.70600000000002</v>
       </c>
       <c r="E7">
-        <v>348.27199999999999</v>
+        <v>188.39599999999999</v>
       </c>
       <c r="F7">
-        <v>145.01900000000001</v>
+        <v>74.412000000000006</v>
       </c>
       <c r="G7">
-        <v>865.19600000000003</v>
+        <v>459.36399999999998</v>
       </c>
       <c r="H7">
-        <v>2492.3589999999999</v>
+        <v>1968.6790000000001</v>
       </c>
       <c r="I7">
-        <v>153.02799999999999</v>
+        <v>96.224999999999994</v>
       </c>
       <c r="J7">
-        <v>789.78499999999997</v>
+        <v>777.17</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-3.9550000000000001</v>
+        <v>-17.975999999999999</v>
       </c>
       <c r="N7">
-        <v>320.74599999999998</v>
+        <v>190.251</v>
       </c>
       <c r="O7">
-        <v>1570.415</v>
+        <v>1191.674</v>
       </c>
       <c r="P7">
-        <v>867.87400000000002</v>
+        <v>777.25099999999998</v>
       </c>
       <c r="Q7">
-        <v>-72.296000000000006</v>
+        <v>-5.0469999999999997</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>921.94399999999996</v>
+        <v>777.005</v>
       </c>
       <c r="U7">
-        <v>84.016999999999996</v>
+        <v>77.418000000000006</v>
       </c>
       <c r="V7">
-        <v>34.945</v>
+        <v>43.491999999999997</v>
       </c>
       <c r="W7">
-        <v>-19.664999999999999</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-35.502000000000002</v>
+        <v>-23.370999999999999</v>
       </c>
       <c r="Y7">
-        <v>25.632999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>17.844000000000001</v>
+        <v>9.6259999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>45.154000000000003</v>
+        <v>11.595000000000001</v>
       </c>
       <c r="D8">
-        <v>712.46799999999996</v>
+        <v>447.39</v>
       </c>
       <c r="E8">
-        <v>353.52699999999999</v>
+        <v>205.46199999999999</v>
       </c>
       <c r="F8">
-        <v>158.108</v>
+        <v>83.69</v>
       </c>
       <c r="G8">
-        <v>1285.6859999999999</v>
+        <v>487.15199999999999</v>
       </c>
       <c r="H8">
-        <v>2831.491</v>
+        <v>1984.365</v>
       </c>
       <c r="I8">
-        <v>134.113</v>
+        <v>100.20099999999999</v>
       </c>
       <c r="J8">
-        <v>786.11</v>
+        <v>777.16800000000001</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>689.94799999999998</v>
+        <v>186.73</v>
       </c>
       <c r="O8">
-        <v>1908.771</v>
+        <v>1196.1780000000001</v>
       </c>
       <c r="P8">
-        <v>1227.0940000000001</v>
+        <v>777.26199999999994</v>
       </c>
       <c r="Q8">
-        <v>431.10399999999998</v>
+        <v>12.013999999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>922.72</v>
+        <v>788.18700000000001</v>
       </c>
       <c r="U8">
-        <v>515.12099999999998</v>
+        <v>89.432000000000002</v>
       </c>
       <c r="V8">
-        <v>115.1</v>
+        <v>40.073</v>
       </c>
       <c r="W8">
-        <v>-24.631</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>293.16199999999998</v>
+        <v>-0.98899999999999999</v>
       </c>
       <c r="Y8">
-        <v>25.393999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>45.154000000000003</v>
+        <v>11.595000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>39.790999999999997</v>
+        <v>14.598000000000001</v>
       </c>
       <c r="D9">
-        <v>723.47299999999996</v>
+        <v>455.57</v>
       </c>
       <c r="E9">
-        <v>379.67500000000001</v>
+        <v>201.536</v>
       </c>
       <c r="F9">
-        <v>162.55199999999999</v>
+        <v>86.617000000000004</v>
       </c>
       <c r="G9">
-        <v>924.83299999999997</v>
+        <v>548.03</v>
       </c>
       <c r="H9">
-        <v>2455.15</v>
+        <v>2026.88</v>
       </c>
       <c r="I9">
-        <v>147.30799999999999</v>
+        <v>94.832999999999998</v>
       </c>
       <c r="J9">
-        <v>782.37</v>
+        <v>768.10799999999995</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>307.25700000000001</v>
+        <v>207.90100000000001</v>
       </c>
       <c r="O9">
-        <v>1515.0540000000001</v>
+        <v>1240.768</v>
       </c>
       <c r="P9">
-        <v>823.47</v>
+        <v>768.202</v>
       </c>
       <c r="Q9">
-        <v>-374.21499999999997</v>
+        <v>40.26</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>940.096</v>
+        <v>786.11199999999997</v>
       </c>
       <c r="U9">
-        <v>140.90600000000001</v>
+        <v>129.69200000000001</v>
       </c>
       <c r="V9">
-        <v>101.76600000000001</v>
+        <v>89.513000000000005</v>
       </c>
       <c r="W9">
-        <v>-24.48</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-451.33199999999999</v>
+        <v>-27.029</v>
       </c>
       <c r="Y9">
-        <v>25.151</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>39.790999999999997</v>
+        <v>14.598000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>61.030999999999999</v>
+        <v>12.36</v>
       </c>
       <c r="D10">
-        <v>736.57899999999995</v>
+        <v>418.19200000000001</v>
       </c>
       <c r="E10">
-        <v>352.142</v>
+        <v>175.71600000000001</v>
       </c>
       <c r="F10">
-        <v>174.91200000000001</v>
+        <v>79.915999999999997</v>
       </c>
       <c r="G10">
-        <v>937.03300000000002</v>
+        <v>509.55399999999997</v>
       </c>
       <c r="H10">
-        <v>2453.768</v>
+        <v>1982.5509999999999</v>
       </c>
       <c r="I10">
-        <v>117.51</v>
+        <v>85.807000000000002</v>
       </c>
       <c r="J10">
-        <v>778.63</v>
+        <v>629.11900000000003</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>259.846</v>
+        <v>296.80599999999998</v>
       </c>
       <c r="O10">
-        <v>1484.307</v>
+        <v>1186.6759999999999</v>
       </c>
       <c r="P10">
-        <v>819.49800000000005</v>
+        <v>742.21299999999997</v>
       </c>
       <c r="Q10">
-        <v>66.486999999999995</v>
+        <v>1.613</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>8600</v>
+        <v>7900</v>
       </c>
       <c r="T10">
-        <v>969.46100000000001</v>
+        <v>795.875</v>
       </c>
       <c r="U10">
-        <v>207.393</v>
+        <v>131.30500000000001</v>
       </c>
       <c r="V10">
-        <v>152.39400000000001</v>
+        <v>66.938000000000002</v>
       </c>
       <c r="W10">
-        <v>-49.075000000000003</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-51.942999999999998</v>
+        <v>-30.161999999999999</v>
       </c>
       <c r="Y10">
-        <v>24.904</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>61.030999999999999</v>
+        <v>12.36</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>62.293999999999997</v>
+        <v>7.1269999999999998</v>
       </c>
       <c r="D11">
-        <v>755.20699999999999</v>
+        <v>423.26799999999997</v>
       </c>
       <c r="E11">
-        <v>391.68299999999999</v>
+        <v>190.08099999999999</v>
       </c>
       <c r="F11">
-        <v>185.24600000000001</v>
+        <v>72.165000000000006</v>
       </c>
       <c r="G11">
-        <v>1011.636</v>
+        <v>542.82899999999995</v>
       </c>
       <c r="H11">
-        <v>2515.9380000000001</v>
+        <v>2000.5630000000001</v>
       </c>
       <c r="I11">
-        <v>142.85599999999999</v>
+        <v>96.510999999999996</v>
       </c>
       <c r="J11">
-        <v>774.89</v>
+        <v>629.12900000000002</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-3.9849999999999999</v>
+        <v>-4.024</v>
       </c>
       <c r="N11">
-        <v>286.38</v>
+        <v>300.70100000000002</v>
       </c>
       <c r="O11">
-        <v>1514.1189999999999</v>
+        <v>1197.778</v>
       </c>
       <c r="P11">
-        <v>815.52300000000002</v>
+        <v>738.19899999999996</v>
       </c>
       <c r="Q11">
-        <v>60.643999999999998</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1001.819</v>
+        <v>802.78499999999997</v>
       </c>
       <c r="U11">
-        <v>268.03699999999998</v>
+        <v>140.01499999999999</v>
       </c>
       <c r="V11">
-        <v>95.766999999999996</v>
+        <v>38.695</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-6.1630000000000003</v>
+        <v>-6.1210000000000004</v>
       </c>
       <c r="Y11">
-        <v>24.652999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>62.293999999999997</v>
+        <v>7.1269999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>66.251999999999995</v>
+        <v>10.673999999999999</v>
       </c>
       <c r="D12">
-        <v>800.23</v>
+        <v>436.47</v>
       </c>
       <c r="E12">
-        <v>403.36700000000002</v>
+        <v>193.75299999999999</v>
       </c>
       <c r="F12">
-        <v>195.25</v>
+        <v>78.491</v>
       </c>
       <c r="G12">
-        <v>1102.3330000000001</v>
+        <v>554.697</v>
       </c>
       <c r="H12">
-        <v>2614.8209999999999</v>
+        <v>2003.6949999999999</v>
       </c>
       <c r="I12">
-        <v>164.91</v>
+        <v>91.405000000000001</v>
       </c>
       <c r="J12">
-        <v>771.15099999999995</v>
+        <v>629.14</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>344.15</v>
+        <v>286.69499999999999</v>
       </c>
       <c r="O12">
-        <v>1563.5350000000001</v>
+        <v>1191.5640000000001</v>
       </c>
       <c r="P12">
-        <v>811.54499999999996</v>
+        <v>738.21</v>
       </c>
       <c r="Q12">
-        <v>102.02</v>
+        <v>-8.5640000000000001</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1051.2860000000001</v>
+        <v>812.13099999999997</v>
       </c>
       <c r="U12">
-        <v>370.05700000000002</v>
+        <v>131.45099999999999</v>
       </c>
       <c r="V12">
-        <v>187.27</v>
+        <v>37.347000000000001</v>
       </c>
       <c r="W12">
-        <v>-30.658000000000001</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-31.356999999999999</v>
+        <v>-12.439</v>
       </c>
       <c r="Y12">
-        <v>24.396999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>66.251999999999995</v>
+        <v>10.673999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>84.682000000000002</v>
+        <v>-32.335999999999999</v>
       </c>
       <c r="D13">
-        <v>845.44</v>
+        <v>444.59899999999999</v>
       </c>
       <c r="E13">
-        <v>409.72500000000002</v>
+        <v>202.465</v>
       </c>
       <c r="F13">
-        <v>227.59899999999999</v>
+        <v>78.406999999999996</v>
       </c>
       <c r="G13">
-        <v>1135.9280000000001</v>
+        <v>570.43700000000001</v>
       </c>
       <c r="H13">
-        <v>2657.1089999999999</v>
+        <v>1991.586</v>
       </c>
       <c r="I13">
-        <v>163.928</v>
+        <v>97.063999999999993</v>
       </c>
       <c r="J13">
-        <v>767.41099999999994</v>
+        <v>599.69500000000005</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>353.90199999999999</v>
+        <v>301.12200000000001</v>
       </c>
       <c r="O13">
-        <v>1557.981</v>
+        <v>1188.33</v>
       </c>
       <c r="P13">
-        <v>807.56200000000001</v>
+        <v>708.76499999999999</v>
       </c>
       <c r="Q13">
-        <v>26.538</v>
+        <v>-14.8</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1099.1279999999999</v>
+        <v>803.25599999999997</v>
       </c>
       <c r="U13">
-        <v>396.59500000000003</v>
+        <v>116.651</v>
       </c>
       <c r="V13">
-        <v>137.131</v>
+        <v>72.917000000000002</v>
       </c>
       <c r="W13">
-        <v>-39.225000000000001</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-60.927</v>
+        <v>-61.305999999999997</v>
       </c>
       <c r="Y13">
-        <v>24.138000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z13">
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>84.682000000000002</v>
+        <v>-32.335999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>228.072</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="D14">
-        <v>1264.423</v>
+        <v>431.197</v>
       </c>
       <c r="E14">
-        <v>643.1</v>
+        <v>190.86199999999999</v>
       </c>
       <c r="F14">
-        <v>280.90499999999997</v>
+        <v>68.804000000000002</v>
       </c>
       <c r="G14">
-        <v>1531</v>
+        <v>566.53399999999999</v>
       </c>
       <c r="H14">
-        <v>5243.8</v>
+        <v>1985.126</v>
       </c>
       <c r="I14">
-        <v>357.5</v>
+        <v>126.92400000000001</v>
       </c>
       <c r="J14">
-        <v>2508.8000000000002</v>
+        <v>585.19799999999998</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>660.6</v>
+        <v>342.97699999999998</v>
       </c>
       <c r="O14">
-        <v>3887</v>
+        <v>1187.646</v>
       </c>
       <c r="P14">
-        <v>2572.6999999999998</v>
+        <v>697.96100000000001</v>
       </c>
       <c r="Q14">
-        <v>-205.602</v>
+        <v>55.371000000000002</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>13600</v>
+        <v>7900</v>
       </c>
       <c r="T14">
-        <v>1356.8</v>
+        <v>797.48</v>
       </c>
       <c r="U14">
-        <v>191</v>
+        <v>172.02199999999999</v>
       </c>
       <c r="V14">
-        <v>188.03200000000001</v>
+        <v>95.918000000000006</v>
       </c>
       <c r="W14">
-        <v>-39.216999999999999</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>885.24699999999996</v>
+        <v>-6.3650000000000002</v>
       </c>
       <c r="Y14">
-        <v>23.9</v>
+        <v>0</v>
       </c>
       <c r="Z14">
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>228.072</v>
+        <v>0.17699999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>90.1</v>
+        <v>-6.585</v>
       </c>
       <c r="D15">
-        <v>1431.3</v>
+        <v>431.267</v>
       </c>
       <c r="E15">
-        <v>696.34400000000005</v>
+        <v>188.86600000000001</v>
       </c>
       <c r="F15">
-        <v>304.3</v>
+        <v>40.628999999999998</v>
       </c>
       <c r="G15">
-        <v>1561.3430000000001</v>
+        <v>482.90899999999999</v>
       </c>
       <c r="H15">
-        <v>5263.9480000000003</v>
+        <v>1926.2280000000001</v>
       </c>
       <c r="I15">
-        <v>390.63</v>
+        <v>123.964</v>
       </c>
       <c r="J15">
-        <v>2475.393</v>
+        <v>585.45699999999999</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-66.3</v>
+        <v>-3.875</v>
       </c>
       <c r="N15">
-        <v>643.43299999999999</v>
+        <v>311.06200000000001</v>
       </c>
       <c r="O15">
-        <v>3846.3649999999998</v>
+        <v>1145.4780000000001</v>
       </c>
       <c r="P15">
-        <v>2506.5459999999998</v>
+        <v>694.55600000000004</v>
       </c>
       <c r="Q15">
-        <v>-5.3</v>
+        <v>-81.715000000000003</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
-        <v>13600</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>1417.5830000000001</v>
+        <v>780.75</v>
       </c>
       <c r="U15">
-        <v>185.70599999999999</v>
+        <v>87.588999999999999</v>
       </c>
       <c r="V15">
-        <v>149.30000000000001</v>
+        <v>1.409</v>
       </c>
       <c r="W15">
-        <v>-39.299999999999997</v>
+        <v>-15.839</v>
       </c>
       <c r="X15">
-        <v>-101</v>
+        <v>-15.991</v>
       </c>
       <c r="Y15">
-        <v>23.606000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>90.1</v>
+        <v>-6.585</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>99.5</v>
+        <v>12.334</v>
       </c>
       <c r="D16">
-        <v>1468.4</v>
+        <v>467.41500000000002</v>
       </c>
       <c r="E16">
-        <v>704.21799999999996</v>
+        <v>206.892</v>
       </c>
       <c r="F16">
-        <v>328.2</v>
+        <v>70.7</v>
       </c>
       <c r="G16">
-        <v>1574.249</v>
+        <v>504.66800000000001</v>
       </c>
       <c r="H16">
-        <v>5304.2370000000001</v>
+        <v>1935.1610000000001</v>
       </c>
       <c r="I16">
-        <v>394.74299999999999</v>
+        <v>114.239</v>
       </c>
       <c r="J16">
-        <v>2425.4409999999998</v>
+        <v>585.56899999999996</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>657.91300000000001</v>
+        <v>308.09100000000001</v>
       </c>
       <c r="O16">
-        <v>3821.6179999999999</v>
+        <v>1153.5909999999999</v>
       </c>
       <c r="P16">
-        <v>2456.3389999999999</v>
+        <v>694.66800000000001</v>
       </c>
       <c r="Q16">
-        <v>-23.7</v>
+        <v>6.96</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>1482.6189999999999</v>
+        <v>781.57</v>
       </c>
       <c r="U16">
-        <v>161.99100000000001</v>
+        <v>91.180999999999997</v>
       </c>
       <c r="V16">
-        <v>184.8</v>
+        <v>44.904000000000003</v>
       </c>
       <c r="W16">
-        <v>-39.299999999999997</v>
+        <v>-15.91</v>
       </c>
       <c r="X16">
-        <v>-90.8</v>
+        <v>-12.926</v>
       </c>
       <c r="Y16">
-        <v>23.332999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA16">
-        <v>99.6</v>
+        <v>12.334</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>104.5</v>
+        <v>24.606999999999999</v>
       </c>
       <c r="D17">
-        <v>1518.9</v>
+        <v>498.75299999999999</v>
       </c>
       <c r="E17">
-        <v>717.947</v>
+        <v>226.06800000000001</v>
       </c>
       <c r="F17">
-        <v>342</v>
+        <v>97.978999999999999</v>
       </c>
       <c r="G17">
-        <v>1597.7070000000001</v>
+        <v>557.99400000000003</v>
       </c>
       <c r="H17">
-        <v>5330.7489999999998</v>
+        <v>1968.8589999999999</v>
       </c>
       <c r="I17">
-        <v>387.85399999999998</v>
+        <v>116.97499999999999</v>
       </c>
       <c r="J17">
-        <v>2350.4839999999999</v>
+        <v>585.61199999999997</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>690.03499999999997</v>
+        <v>319.529</v>
       </c>
       <c r="O17">
-        <v>3778.71</v>
+        <v>1172.06</v>
       </c>
       <c r="P17">
-        <v>2381.1210000000001</v>
+        <v>694.71100000000001</v>
       </c>
       <c r="Q17">
-        <v>-7.7</v>
+        <v>22.1</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>1552.039</v>
+        <v>796.79899999999998</v>
       </c>
       <c r="U17">
-        <v>154.32300000000001</v>
+        <v>119.367</v>
       </c>
       <c r="V17">
-        <v>222.6</v>
+        <v>56.912999999999997</v>
       </c>
       <c r="W17">
-        <v>-39.4</v>
+        <v>-15.944000000000001</v>
       </c>
       <c r="X17">
-        <v>-118</v>
+        <v>-13.097</v>
       </c>
       <c r="Y17">
-        <v>23.055</v>
+        <v>0</v>
       </c>
       <c r="Z17">
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>104.4</v>
+        <v>24.606999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>98.5</v>
+        <v>38.374000000000002</v>
       </c>
       <c r="D18">
-        <v>1433.9</v>
+        <v>492.65</v>
       </c>
       <c r="E18">
-        <v>646.1</v>
+        <v>216.59399999999999</v>
       </c>
       <c r="F18">
-        <v>313</v>
+        <v>88.406000000000006</v>
       </c>
       <c r="G18">
-        <v>1502.9</v>
+        <v>677.06100000000004</v>
       </c>
       <c r="H18">
-        <v>5272.8</v>
+        <v>2082.7739999999999</v>
       </c>
       <c r="I18">
-        <v>330.5</v>
+        <v>112.905</v>
       </c>
       <c r="J18">
-        <v>2348.9</v>
+        <v>585.72400000000005</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>611</v>
+        <v>335.10399999999998</v>
       </c>
       <c r="O18">
-        <v>3751.4</v>
+        <v>1265.204</v>
       </c>
       <c r="P18">
-        <v>2379.3000000000002</v>
+        <v>694.89200000000005</v>
       </c>
       <c r="Q18">
-        <v>-29.4</v>
+        <v>93.953999999999994</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>14000</v>
+        <v>8100</v>
       </c>
       <c r="T18">
-        <v>1521.4</v>
+        <v>817.57</v>
       </c>
       <c r="U18">
-        <v>124.9</v>
+        <v>213.321</v>
       </c>
       <c r="V18">
-        <v>179.4</v>
+        <v>112.117</v>
       </c>
       <c r="W18">
-        <v>-39.4</v>
+        <v>-16.036000000000001</v>
       </c>
       <c r="X18">
-        <v>-41.3</v>
+        <v>-15.215999999999999</v>
       </c>
       <c r="Y18">
-        <v>22.8</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>29.294</v>
       </c>
       <c r="AA18">
-        <v>98.5</v>
+        <v>38.374000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>90.8</v>
+        <v>12.619</v>
       </c>
       <c r="D19">
-        <v>1425.7</v>
+        <v>489.43700000000001</v>
       </c>
       <c r="E19">
-        <v>676.7</v>
+        <v>227.404</v>
       </c>
       <c r="F19">
-        <v>286</v>
+        <v>73.266000000000005</v>
       </c>
       <c r="G19">
-        <v>1614.8</v>
+        <v>660.83399999999995</v>
       </c>
       <c r="H19">
-        <v>5385.4</v>
+        <v>2066.7170000000001</v>
       </c>
       <c r="I19">
-        <v>352.7</v>
+        <v>147.36799999999999</v>
       </c>
       <c r="J19">
-        <v>2347.4</v>
+        <v>585.83600000000001</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-1.9</v>
+        <v>-7.5999999999999998E-2</v>
       </c>
       <c r="N19">
-        <v>621.29999999999995</v>
+        <v>328.38099999999997</v>
       </c>
       <c r="O19">
-        <v>3829.1</v>
+        <v>1257.8309999999999</v>
       </c>
       <c r="P19">
-        <v>2377.5</v>
+        <v>694.93600000000004</v>
       </c>
       <c r="Q19">
-        <v>1.5</v>
+        <v>-33.122</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1556.3</v>
+        <v>808.88599999999997</v>
       </c>
       <c r="U19">
-        <v>126.4</v>
+        <v>180.19900000000001</v>
       </c>
       <c r="V19">
-        <v>108.3</v>
+        <v>15.02</v>
       </c>
       <c r="W19">
-        <v>-39.4</v>
+        <v>-16.048999999999999</v>
       </c>
       <c r="X19">
-        <v>-49.2</v>
+        <v>-12.28</v>
       </c>
       <c r="Y19">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>2.5059999999999998</v>
       </c>
       <c r="AA19">
-        <v>90.8</v>
+        <v>12.619</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>114</v>
+        <v>27.76</v>
       </c>
       <c r="D20">
-        <v>1454.3</v>
+        <v>519.32500000000005</v>
       </c>
       <c r="E20">
-        <v>708</v>
+        <v>235.83199999999999</v>
       </c>
       <c r="F20">
-        <v>317.7</v>
+        <v>95.915000000000006</v>
       </c>
       <c r="G20">
-        <v>1657.4</v>
+        <v>644.85299999999995</v>
       </c>
       <c r="H20">
-        <v>5409.9</v>
+        <v>2085.444</v>
       </c>
       <c r="I20">
-        <v>339.3</v>
+        <v>140.46</v>
       </c>
       <c r="J20">
-        <v>2345.8000000000002</v>
+        <v>585.94799999999998</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>606.20000000000005</v>
+        <v>343.02699999999999</v>
       </c>
       <c r="O20">
-        <v>3818.9</v>
+        <v>1271.902</v>
       </c>
       <c r="P20">
-        <v>2375.6</v>
+        <v>694.97799999999995</v>
       </c>
       <c r="Q20">
-        <v>37.299999999999997</v>
+        <v>-14.744999999999999</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1591</v>
+        <v>813.54200000000003</v>
       </c>
       <c r="U20">
-        <v>163.69999999999999</v>
+        <v>165.45400000000001</v>
       </c>
       <c r="V20">
-        <v>196.2</v>
+        <v>78.820999999999998</v>
       </c>
       <c r="W20">
-        <v>-54.1</v>
+        <v>-26.85</v>
       </c>
       <c r="X20">
-        <v>-92.6</v>
+        <v>-25.053999999999998</v>
       </c>
       <c r="Y20">
-        <v>22.2</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>12.532</v>
       </c>
       <c r="AA20">
-        <v>114</v>
+        <v>27.76</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>127.8</v>
+        <v>10.566000000000001</v>
       </c>
       <c r="D21">
-        <v>1470.8</v>
+        <v>512.18700000000001</v>
       </c>
       <c r="E21">
-        <v>683.5</v>
+        <v>227.93600000000001</v>
       </c>
       <c r="F21">
-        <v>328.3</v>
+        <v>80.501000000000005</v>
       </c>
       <c r="G21">
-        <v>1679.3</v>
+        <v>641.375</v>
       </c>
       <c r="H21">
-        <v>5422.2</v>
+        <v>2070.703</v>
       </c>
       <c r="I21">
-        <v>337</v>
+        <v>142.19800000000001</v>
       </c>
       <c r="J21">
-        <v>2319.3000000000002</v>
+        <v>577.06100000000004</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>628.4</v>
+        <v>358.87599999999998</v>
       </c>
       <c r="O21">
-        <v>3807.2</v>
+        <v>1271.875</v>
       </c>
       <c r="P21">
-        <v>2348.8000000000002</v>
+        <v>695.09100000000001</v>
       </c>
       <c r="Q21">
-        <v>23.2</v>
+        <v>18.975000000000001</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1615</v>
+        <v>798.82799999999997</v>
       </c>
       <c r="U21">
-        <v>186.9</v>
+        <v>184.429</v>
       </c>
       <c r="V21">
-        <v>237.5</v>
+        <v>74.852000000000004</v>
       </c>
       <c r="W21">
-        <v>-53.8</v>
+        <v>-26.940999999999999</v>
       </c>
       <c r="X21">
-        <v>-135.4</v>
+        <v>-25.542999999999999</v>
       </c>
       <c r="Y21">
-        <v>21.9</v>
+        <v>0</v>
       </c>
       <c r="Z21">
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>127.8</v>
+        <v>10.566000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>104.2</v>
+        <v>1.659</v>
       </c>
       <c r="D22">
-        <v>1390.9</v>
+        <v>472.709</v>
       </c>
       <c r="E22">
-        <v>636.5</v>
+        <v>213.18100000000001</v>
       </c>
       <c r="F22">
-        <v>285.10000000000002</v>
+        <v>57.128999999999998</v>
       </c>
       <c r="G22">
-        <v>1554.5</v>
+        <v>553.48900000000003</v>
       </c>
       <c r="H22">
-        <v>5272.3</v>
+        <v>1973.298</v>
       </c>
       <c r="I22">
-        <v>294.2</v>
+        <v>124.851</v>
       </c>
       <c r="J22">
-        <v>2290.4</v>
+        <v>577.173</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>561.9</v>
+        <v>372.09399999999999</v>
       </c>
       <c r="O22">
-        <v>3639</v>
+        <v>1291.8779999999999</v>
       </c>
       <c r="P22">
-        <v>2319.6999999999998</v>
+        <v>695.20299999999997</v>
       </c>
       <c r="Q22">
-        <v>-2.7</v>
+        <v>-71.760000000000005</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>13000</v>
+        <v>8300</v>
       </c>
       <c r="T22">
-        <v>1633.3</v>
+        <v>681.42</v>
       </c>
       <c r="U22">
-        <v>184.2</v>
+        <v>112.669</v>
       </c>
       <c r="V22">
-        <v>220.6</v>
+        <v>74.052999999999997</v>
       </c>
       <c r="W22">
-        <v>-53.5</v>
+        <v>-27.027000000000001</v>
       </c>
       <c r="X22">
-        <v>-128</v>
+        <v>-119.04300000000001</v>
       </c>
       <c r="Y22">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="Z22">
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>104.2</v>
+        <v>1.659</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>103.7</v>
+        <v>10.935</v>
       </c>
       <c r="D23">
-        <v>1401</v>
+        <v>507.85599999999999</v>
       </c>
       <c r="E23">
-        <v>631.4</v>
+        <v>233.16800000000001</v>
       </c>
       <c r="F23">
-        <v>299.8</v>
+        <v>76.611000000000004</v>
       </c>
       <c r="G23">
-        <v>1528.9</v>
+        <v>521.60799999999995</v>
       </c>
       <c r="H23">
-        <v>5227.3</v>
+        <v>1921.2239999999999</v>
       </c>
       <c r="I23">
-        <v>309</v>
+        <v>116.49</v>
       </c>
       <c r="J23">
-        <v>2289.3000000000002</v>
+        <v>577.28499999999997</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-1.9</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="N23">
-        <v>545.29999999999995</v>
+        <v>335.72</v>
       </c>
       <c r="O23">
-        <v>3636.5</v>
+        <v>1254.4860000000001</v>
       </c>
       <c r="P23">
-        <v>2318.3000000000002</v>
+        <v>695.31500000000005</v>
       </c>
       <c r="Q23">
-        <v>-21.9</v>
+        <v>-44.814</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>1590.8</v>
+        <v>666.73800000000006</v>
       </c>
       <c r="U23">
-        <v>162.30000000000001</v>
+        <v>67.855000000000004</v>
       </c>
       <c r="V23">
-        <v>191</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="W23">
-        <v>-53.1</v>
+        <v>-27.045000000000002</v>
       </c>
       <c r="X23">
-        <v>-157.4</v>
+        <v>-25.36</v>
       </c>
       <c r="Y23">
-        <v>21.3</v>
+        <v>0</v>
       </c>
       <c r="Z23">
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>103.7</v>
+        <v>10.935</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>115.9</v>
+        <v>32.081000000000003</v>
       </c>
       <c r="D24">
-        <v>1417.4</v>
+        <v>551.09500000000003</v>
       </c>
       <c r="E24">
-        <v>663.4</v>
+        <v>263.702</v>
       </c>
       <c r="F24">
-        <v>320.10000000000002</v>
+        <v>111.883</v>
       </c>
       <c r="G24">
-        <v>1609.9</v>
+        <v>588.57500000000005</v>
       </c>
       <c r="H24">
-        <v>5296.1</v>
+        <v>1976.19</v>
       </c>
       <c r="I24">
-        <v>308.39999999999998</v>
+        <v>131.46600000000001</v>
       </c>
       <c r="J24">
-        <v>2288.1</v>
+        <v>577.60599999999999</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>551.5</v>
+        <v>385.72899999999998</v>
       </c>
       <c r="O24">
-        <v>3633.8</v>
+        <v>1301.6030000000001</v>
       </c>
       <c r="P24">
-        <v>2316.8000000000002</v>
+        <v>695.74800000000005</v>
       </c>
       <c r="Q24">
-        <v>51.3</v>
+        <v>26.222999999999999</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>1662.3</v>
+        <v>674.58699999999999</v>
       </c>
       <c r="U24">
-        <v>213.6</v>
+        <v>94.078000000000003</v>
       </c>
       <c r="V24">
-        <v>185.2</v>
+        <v>79.350999999999999</v>
       </c>
       <c r="W24">
-        <v>-51.8</v>
+        <v>-25.946000000000002</v>
       </c>
       <c r="X24">
-        <v>-61.7</v>
+        <v>-25.241</v>
       </c>
       <c r="Y24">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z24">
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>115.9</v>
+        <v>32.081000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>119.3</v>
+        <v>43.616</v>
       </c>
       <c r="D25">
-        <v>1484</v>
+        <v>575.04100000000005</v>
       </c>
       <c r="E25">
-        <v>713.2</v>
+        <v>277.65899999999999</v>
       </c>
       <c r="F25">
-        <v>330.5</v>
+        <v>134.483</v>
       </c>
       <c r="G25">
-        <v>1747</v>
+        <v>631.14700000000005</v>
       </c>
       <c r="H25">
-        <v>5747.2</v>
+        <v>1992.3920000000001</v>
       </c>
       <c r="I25">
-        <v>327</v>
+        <v>126.883</v>
       </c>
       <c r="J25">
-        <v>2625.8</v>
+        <v>567.68600000000004</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>637.5</v>
+        <v>396.10899999999998</v>
       </c>
       <c r="O25">
-        <v>4017.2</v>
+        <v>1293.634</v>
       </c>
       <c r="P25">
-        <v>2673.5</v>
+        <v>686.83199999999999</v>
       </c>
       <c r="Q25">
-        <v>66.2</v>
+        <v>24.152999999999999</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1730</v>
+        <v>698.75800000000004</v>
       </c>
       <c r="U25">
-        <v>279.8</v>
+        <v>118.23099999999999</v>
       </c>
       <c r="V25">
-        <v>217.3</v>
+        <v>66.924000000000007</v>
       </c>
       <c r="W25">
-        <v>-51.8</v>
+        <v>-25.954000000000001</v>
       </c>
       <c r="X25">
-        <v>303.89999999999998</v>
+        <v>-29.263000000000002</v>
       </c>
       <c r="Y25">
-        <v>20.7</v>
+        <v>0</v>
       </c>
       <c r="Z25">
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>119.3</v>
+        <v>43.616</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>110.7</v>
+        <v>38.4</v>
       </c>
       <c r="D26">
-        <v>1476.6</v>
+        <v>553.05399999999997</v>
       </c>
       <c r="E26">
-        <v>689.2</v>
+        <v>263.15899999999999</v>
       </c>
       <c r="F26">
-        <v>330.1</v>
+        <v>120.9</v>
       </c>
       <c r="G26">
-        <v>1696.3</v>
+        <v>646.71799999999996</v>
       </c>
       <c r="H26">
-        <v>5777</v>
+        <v>1986.9760000000001</v>
       </c>
       <c r="I26">
-        <v>323.8</v>
+        <v>119.39700000000001</v>
       </c>
       <c r="J26">
-        <v>2620</v>
+        <v>567.77</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>625.4</v>
+        <v>388.33800000000002</v>
       </c>
       <c r="O26">
-        <v>4017.2</v>
+        <v>1295.2049999999999</v>
       </c>
       <c r="P26">
-        <v>2667.4</v>
+        <v>686.91700000000003</v>
       </c>
       <c r="Q26">
-        <v>-40.5</v>
+        <v>43.606000000000002</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>14000</v>
+        <v>8300</v>
       </c>
       <c r="T26">
-        <v>1759.8</v>
+        <v>691.77099999999996</v>
       </c>
       <c r="U26">
-        <v>239.3</v>
+        <v>161.83699999999999</v>
       </c>
       <c r="V26">
-        <v>213.4</v>
+        <v>99.840999999999994</v>
       </c>
       <c r="W26">
-        <v>-59.4</v>
+        <v>-26.106999999999999</v>
       </c>
       <c r="X26">
-        <v>-67</v>
+        <v>-23.645</v>
       </c>
       <c r="Y26">
-        <v>20.3</v>
+        <v>0</v>
       </c>
       <c r="Z26">
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>110.7</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>117.4</v>
+        <v>31.190999999999999</v>
       </c>
       <c r="D27">
-        <v>1536.5</v>
+        <v>559.15899999999999</v>
       </c>
       <c r="E27">
-        <v>733.3</v>
+        <v>275.29199999999997</v>
       </c>
       <c r="F27">
-        <v>338.2</v>
+        <v>112.98699999999999</v>
       </c>
       <c r="G27">
-        <v>1779.1</v>
+        <v>648.85599999999999</v>
       </c>
       <c r="H27">
-        <v>5843.4</v>
+        <v>1972.702</v>
       </c>
       <c r="I27">
-        <v>367.3</v>
+        <v>125.934</v>
       </c>
       <c r="J27">
-        <v>2458.4</v>
+        <v>567.851</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-31.7</v>
+        <v>-3.5999999999999997E-2</v>
       </c>
       <c r="N27">
-        <v>776</v>
+        <v>361.70699999999999</v>
       </c>
       <c r="O27">
-        <v>4018.7</v>
+        <v>1263.0640000000001</v>
       </c>
       <c r="P27">
-        <v>2636.2</v>
+        <v>687.00099999999998</v>
       </c>
       <c r="Q27">
-        <v>14.7</v>
+        <v>-14.542999999999999</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1824.7</v>
+        <v>709.63800000000003</v>
       </c>
       <c r="U27">
-        <v>254</v>
+        <v>147.29400000000001</v>
       </c>
       <c r="V27">
-        <v>164.1</v>
+        <v>27.236000000000001</v>
       </c>
       <c r="W27">
-        <v>-59.4</v>
+        <v>-26.154</v>
       </c>
       <c r="X27">
-        <v>-91.6</v>
+        <v>-19.821000000000002</v>
       </c>
       <c r="Y27">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z27">
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>117.4</v>
+        <v>31.190999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>143.19999999999999</v>
+        <v>46.226999999999997</v>
       </c>
       <c r="D28">
-        <v>1584</v>
+        <v>585.62800000000004</v>
       </c>
       <c r="E28">
-        <v>755.2</v>
+        <v>289.12</v>
       </c>
       <c r="F28">
-        <v>364.3</v>
+        <v>140.11000000000001</v>
       </c>
       <c r="G28">
-        <v>1863.4</v>
+        <v>728.06700000000001</v>
       </c>
       <c r="H28">
-        <v>5903.2</v>
+        <v>2034.883</v>
       </c>
       <c r="I28">
-        <v>349.2</v>
+        <v>133.755</v>
       </c>
       <c r="J28">
-        <v>2457.3000000000002</v>
+        <v>567.93200000000002</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>760.2</v>
+        <v>400.85</v>
       </c>
       <c r="O28">
-        <v>3996.6</v>
+        <v>1296.5830000000001</v>
       </c>
       <c r="P28">
-        <v>2634.8</v>
+        <v>687.08399999999995</v>
       </c>
       <c r="Q28">
-        <v>67</v>
+        <v>60.780999999999999</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>1906.6</v>
+        <v>738.3</v>
       </c>
       <c r="U28">
-        <v>321</v>
+        <v>208.07499999999999</v>
       </c>
       <c r="V28">
-        <v>221.5</v>
+        <v>102.417</v>
       </c>
       <c r="W28">
-        <v>-59.4</v>
+        <v>-26.242999999999999</v>
       </c>
       <c r="X28">
-        <v>-71.400000000000006</v>
+        <v>-20.347000000000001</v>
       </c>
       <c r="Y28">
-        <v>19.7</v>
+        <v>0</v>
       </c>
       <c r="Z28">
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>143.19999999999999</v>
+        <v>46.226999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>139.1</v>
+        <v>48.655999999999999</v>
       </c>
       <c r="D29">
-        <v>1640.1</v>
+        <v>591.04100000000005</v>
       </c>
       <c r="E29">
-        <v>831.3</v>
+        <v>300.37099999999998</v>
       </c>
       <c r="F29">
-        <v>400</v>
+        <v>139.55799999999999</v>
       </c>
       <c r="G29">
-        <v>2001.8</v>
+        <v>726.91600000000005</v>
       </c>
       <c r="H29">
-        <v>6027.2</v>
+        <v>2021.354</v>
       </c>
       <c r="I29">
-        <v>379.5</v>
+        <v>135.41300000000001</v>
       </c>
       <c r="J29">
-        <v>2456.3000000000002</v>
+        <v>398.45699999999999</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>824.3</v>
+        <v>550.48199999999997</v>
       </c>
       <c r="O29">
-        <v>4033</v>
+        <v>1263.6389999999999</v>
       </c>
       <c r="P29">
-        <v>2633.4</v>
+        <v>677.16700000000003</v>
       </c>
       <c r="Q29">
-        <v>49.5</v>
+        <v>-13.929</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1994.2</v>
+        <v>757.71500000000003</v>
       </c>
       <c r="U29">
-        <v>370.5</v>
+        <v>194.14599999999999</v>
       </c>
       <c r="V29">
-        <v>197.7</v>
+        <v>53.158999999999999</v>
       </c>
       <c r="W29">
-        <v>-59.4</v>
+        <v>-26.314</v>
       </c>
       <c r="X29">
-        <v>-61.5</v>
+        <v>-40.98</v>
       </c>
       <c r="Y29">
-        <v>19.3</v>
+        <v>0</v>
       </c>
       <c r="Z29">
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>139.1</v>
+        <v>48.655999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>268.89999999999998</v>
+        <v>43.991999999999997</v>
       </c>
       <c r="D30">
-        <v>1684.3</v>
+        <v>580.178</v>
       </c>
       <c r="E30">
-        <v>830.7</v>
+        <v>275.92099999999999</v>
       </c>
       <c r="F30">
-        <v>379.4</v>
+        <v>129.59299999999999</v>
       </c>
       <c r="G30">
-        <v>1915.1</v>
+        <v>733.03700000000003</v>
       </c>
       <c r="H30">
-        <v>6197.5</v>
+        <v>2035.857</v>
       </c>
       <c r="I30">
-        <v>402.9</v>
+        <v>132.197</v>
       </c>
       <c r="J30">
-        <v>2480.4</v>
+        <v>398.47899999999998</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>832.7</v>
+        <v>562.577</v>
       </c>
       <c r="O30">
-        <v>4014.9</v>
+        <v>1274.9960000000001</v>
       </c>
       <c r="P30">
-        <v>2650.7</v>
+        <v>677.24800000000005</v>
       </c>
       <c r="Q30">
-        <v>-153.6</v>
+        <v>33.997</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>14600</v>
+        <v>8350</v>
       </c>
       <c r="T30">
-        <v>2182.6</v>
+        <v>760.86099999999999</v>
       </c>
       <c r="U30">
-        <v>216.9</v>
+        <v>228.143</v>
       </c>
       <c r="V30">
-        <v>272.8</v>
+        <v>117.337</v>
       </c>
       <c r="W30">
-        <v>-59.4</v>
+        <v>-26.337</v>
       </c>
       <c r="X30">
-        <v>-44.9</v>
+        <v>-39.508000000000003</v>
       </c>
       <c r="Y30">
-        <v>19</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA30">
-        <v>268.89999999999998</v>
+        <v>43.991999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>140.1</v>
+        <v>32.073</v>
       </c>
       <c r="D31">
-        <v>1690.6</v>
+        <v>577.47400000000005</v>
       </c>
       <c r="E31">
-        <v>860.2</v>
+        <v>278.779</v>
       </c>
       <c r="F31">
-        <v>364.1</v>
+        <v>118.161</v>
       </c>
       <c r="G31">
-        <v>1832.6</v>
+        <v>819.76499999999999</v>
       </c>
       <c r="H31">
-        <v>6139.8</v>
+        <v>2120.89</v>
       </c>
       <c r="I31">
-        <v>427.3</v>
+        <v>146.733</v>
       </c>
       <c r="J31">
-        <v>2481.1999999999998</v>
+        <v>548.48800000000006</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-150.30000000000001</v>
+        <v>-20.039000000000001</v>
       </c>
       <c r="N31">
-        <v>673.6</v>
+        <v>524.13599999999997</v>
       </c>
       <c r="O31">
-        <v>3866</v>
+        <v>1384.2270000000001</v>
       </c>
       <c r="P31">
-        <v>2501.1999999999998</v>
+        <v>807.26800000000003</v>
       </c>
       <c r="Q31">
-        <v>-114.5</v>
+        <v>82.224999999999994</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>2273.8000000000002</v>
+        <v>736.66300000000001</v>
       </c>
       <c r="U31">
-        <v>102.4</v>
+        <v>310.36799999999999</v>
       </c>
       <c r="V31">
-        <v>202.5</v>
+        <v>44.566000000000003</v>
       </c>
       <c r="W31">
-        <v>-59.4</v>
+        <v>-31.533999999999999</v>
       </c>
       <c r="X31">
-        <v>-209.8</v>
+        <v>72.795000000000002</v>
       </c>
       <c r="Y31">
-        <v>18.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z31">
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>140.1</v>
+        <v>32.073</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>186.6</v>
+        <v>35.192</v>
       </c>
       <c r="D32">
-        <v>1767.5</v>
+        <v>616.18299999999999</v>
       </c>
       <c r="E32">
-        <v>920</v>
+        <v>295.34300000000002</v>
       </c>
       <c r="F32">
-        <v>426.6</v>
+        <v>127.196</v>
       </c>
       <c r="G32">
-        <v>1956.6</v>
+        <v>833.73299999999995</v>
       </c>
       <c r="H32">
-        <v>6315.6</v>
+        <v>2127.5360000000001</v>
       </c>
       <c r="I32">
-        <v>431.7</v>
+        <v>133.29300000000001</v>
       </c>
       <c r="J32">
-        <v>2482.1</v>
+        <v>548.226</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>715.8</v>
+        <v>548.28899999999999</v>
       </c>
       <c r="O32">
-        <v>3927.6</v>
+        <v>1403.673</v>
       </c>
       <c r="P32">
-        <v>2501.8000000000002</v>
+        <v>807.31299999999999</v>
       </c>
       <c r="Q32">
-        <v>97.2</v>
+        <v>-12.763999999999999</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>2388</v>
+        <v>723.86300000000006</v>
       </c>
       <c r="U32">
-        <v>199.6</v>
+        <v>297.60399999999998</v>
       </c>
       <c r="V32">
-        <v>331</v>
+        <v>66.218999999999994</v>
       </c>
       <c r="W32">
-        <v>-59.5</v>
+        <v>-31.268999999999998</v>
       </c>
       <c r="X32">
-        <v>-67.5</v>
+        <v>-46.645000000000003</v>
       </c>
       <c r="Y32">
-        <v>18.3</v>
+        <v>0</v>
       </c>
       <c r="Z32">
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>186.6</v>
+        <v>35.192</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>206.7</v>
+        <v>38.101999999999997</v>
       </c>
       <c r="D33">
-        <v>1809.9</v>
+        <v>620.78499999999997</v>
       </c>
       <c r="E33">
-        <v>986.2</v>
+        <v>305.89400000000001</v>
       </c>
       <c r="F33">
-        <v>443.5</v>
+        <v>132.05099999999999</v>
       </c>
       <c r="G33">
-        <v>2114.6999999999998</v>
+        <v>700.53800000000001</v>
       </c>
       <c r="H33">
-        <v>6500</v>
+        <v>1989.43</v>
       </c>
       <c r="I33">
-        <v>438.9</v>
+        <v>138.315</v>
       </c>
       <c r="J33">
-        <v>2482.9</v>
+        <v>548.31299999999999</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>766.5</v>
+        <v>406.51799999999997</v>
       </c>
       <c r="O33">
-        <v>3969.8</v>
+        <v>1256.46</v>
       </c>
       <c r="P33">
-        <v>2502.1999999999998</v>
+        <v>657.36800000000005</v>
       </c>
       <c r="Q33">
-        <v>94.2</v>
+        <v>-149.637</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>2530.1999999999998</v>
+        <v>732.97</v>
       </c>
       <c r="U33">
-        <v>293.8</v>
+        <v>147.96700000000001</v>
       </c>
       <c r="V33">
-        <v>301</v>
+        <v>71.39</v>
       </c>
       <c r="W33">
-        <v>-74.5</v>
+        <v>-31.157</v>
       </c>
       <c r="X33">
-        <v>-75</v>
+        <v>-188.113</v>
       </c>
       <c r="Y33">
-        <v>17.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z33">
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>206.7</v>
+        <v>38.101999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>204.6</v>
+        <v>30.242000000000001</v>
       </c>
       <c r="D34">
-        <v>1746.5</v>
+        <v>546.05100000000004</v>
       </c>
       <c r="E34">
-        <v>901.9</v>
+        <v>254.898</v>
       </c>
       <c r="F34">
-        <v>426.4</v>
+        <v>113.95</v>
       </c>
       <c r="G34">
-        <v>2115.1</v>
+        <v>633.173</v>
       </c>
       <c r="H34">
-        <v>6569.7</v>
+        <v>1939.741</v>
       </c>
       <c r="I34">
-        <v>382.2</v>
+        <v>101.06399999999999</v>
       </c>
       <c r="J34">
-        <v>2483.6999999999998</v>
+        <v>548.4</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>693.6</v>
+        <v>361.98200000000003</v>
       </c>
       <c r="O34">
-        <v>3897.3</v>
+        <v>1255.7919999999999</v>
       </c>
       <c r="P34">
-        <v>2502.6999999999998</v>
+        <v>681.13499999999999</v>
       </c>
       <c r="Q34">
-        <v>67.7</v>
+        <v>1.43</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>15000</v>
+        <v>8100</v>
       </c>
       <c r="T34">
-        <v>2672.4</v>
+        <v>683.94899999999996</v>
       </c>
       <c r="U34">
-        <v>361.5</v>
+        <v>149.39699999999999</v>
       </c>
       <c r="V34">
-        <v>345.6</v>
+        <v>87.147000000000006</v>
       </c>
       <c r="W34">
-        <v>-74.7</v>
+        <v>-31.097000000000001</v>
       </c>
       <c r="X34">
-        <v>-75</v>
+        <v>-51.569000000000003</v>
       </c>
       <c r="Y34">
-        <v>17.600000000000001</v>
+        <v>23.129000000000001</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>204.6</v>
+        <v>30.242000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>186.8</v>
+        <v>25.675999999999998</v>
       </c>
       <c r="D35">
-        <v>1733.7</v>
+        <v>512.37800000000004</v>
       </c>
       <c r="E35">
-        <v>930.3</v>
+        <v>255.321</v>
       </c>
       <c r="F35">
-        <v>421.4</v>
+        <v>110.008</v>
       </c>
       <c r="G35">
-        <v>2262.4</v>
+        <v>615.46900000000005</v>
       </c>
       <c r="H35">
-        <v>6928.6</v>
+        <v>1912.162</v>
       </c>
       <c r="I35">
-        <v>405.1</v>
+        <v>116.761</v>
       </c>
       <c r="J35">
-        <v>2484.6</v>
+        <v>548.48699999999997</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-0.3</v>
+        <v>-0.16500000000000001</v>
       </c>
       <c r="N35">
-        <v>740.7</v>
+        <v>336.47199999999998</v>
       </c>
       <c r="O35">
-        <v>4134</v>
+        <v>1216.2429999999999</v>
       </c>
       <c r="P35">
-        <v>2725.9</v>
+        <v>681.05700000000002</v>
       </c>
       <c r="Q35">
-        <v>80.900000000000006</v>
+        <v>-9.3740000000000006</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>2794.6</v>
+        <v>695.91899999999998</v>
       </c>
       <c r="U35">
-        <v>442.4</v>
+        <v>140.023</v>
       </c>
       <c r="V35">
-        <v>236</v>
+        <v>50.679000000000002</v>
       </c>
       <c r="W35">
-        <v>-74.7</v>
+        <v>-30.719000000000001</v>
       </c>
       <c r="X35">
-        <v>-75</v>
+        <v>-30.742999999999999</v>
       </c>
       <c r="Y35">
-        <v>182.6</v>
+        <v>22.975999999999999</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>186.8</v>
+        <v>25.675999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>193.6</v>
+        <v>108.881</v>
       </c>
       <c r="D36">
-        <v>1759.9</v>
+        <v>549.38099999999997</v>
       </c>
       <c r="E36">
-        <v>947</v>
+        <v>263.44799999999998</v>
       </c>
       <c r="F36">
-        <v>427.9</v>
+        <v>118.499</v>
       </c>
       <c r="G36">
-        <v>2402.6999999999998</v>
+        <v>766.35500000000002</v>
       </c>
       <c r="H36">
-        <v>7074.4</v>
+        <v>2046.3620000000001</v>
       </c>
       <c r="I36">
-        <v>382.8</v>
+        <v>121.447</v>
       </c>
       <c r="J36">
-        <v>2485.4</v>
+        <v>548.57500000000005</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>729.6</v>
+        <v>351.01100000000002</v>
       </c>
       <c r="O36">
-        <v>4153.2</v>
+        <v>1252.652</v>
       </c>
       <c r="P36">
-        <v>2747</v>
+        <v>681</v>
       </c>
       <c r="Q36">
-        <v>127</v>
+        <v>52.920999999999999</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>2921.2</v>
+        <v>793.71</v>
       </c>
       <c r="U36">
-        <v>569.4</v>
+        <v>192.94399999999999</v>
       </c>
       <c r="V36">
-        <v>302.39999999999998</v>
+        <v>90.569000000000003</v>
       </c>
       <c r="W36">
-        <v>-74.599999999999994</v>
+        <v>-15.36</v>
       </c>
       <c r="X36">
-        <v>-82.7</v>
+        <v>-14.891999999999999</v>
       </c>
       <c r="Y36">
-        <v>200.2</v>
+        <v>22.821000000000002</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>193.6</v>
+        <v>108.881</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>179.8</v>
+        <v>72.655000000000001</v>
       </c>
       <c r="D37">
-        <v>1750.7</v>
+        <v>553.57299999999998</v>
       </c>
       <c r="E37">
-        <v>932.3</v>
+        <v>274.02600000000001</v>
       </c>
       <c r="F37">
-        <v>411.4</v>
+        <v>110.532</v>
       </c>
       <c r="G37">
-        <v>2531.3000000000002</v>
+        <v>847.50300000000004</v>
       </c>
       <c r="H37">
-        <v>7191.1</v>
+        <v>2111.5010000000002</v>
       </c>
       <c r="I37">
-        <v>385.5</v>
+        <v>116.73399999999999</v>
       </c>
       <c r="J37">
-        <v>2486.3000000000002</v>
+        <v>548.66200000000003</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>770.7</v>
+        <v>368.30700000000002</v>
       </c>
       <c r="O37">
-        <v>4156.3999999999996</v>
+        <v>1259.1849999999999</v>
       </c>
       <c r="P37">
-        <v>2741.9</v>
+        <v>680.94</v>
       </c>
       <c r="Q37">
-        <v>168.9</v>
+        <v>31.343</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>3034.7</v>
+        <v>852.31600000000003</v>
       </c>
       <c r="U37">
-        <v>738.3</v>
+        <v>224.28700000000001</v>
       </c>
       <c r="V37">
-        <v>339.8</v>
+        <v>68.045000000000002</v>
       </c>
       <c r="W37">
-        <v>-74.599999999999994</v>
+        <v>-15.377000000000001</v>
       </c>
       <c r="X37">
-        <v>-75.400000000000006</v>
+        <v>-15.119</v>
       </c>
       <c r="Y37">
-        <v>193.7</v>
+        <v>22.663</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>179.8</v>
+        <v>72.655000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>136.19999999999999</v>
+        <v>58.683</v>
       </c>
       <c r="D38">
-        <v>1720</v>
+        <v>532.25699999999995</v>
       </c>
       <c r="E38">
-        <v>845.6</v>
+        <v>243.40299999999999</v>
       </c>
       <c r="F38">
-        <v>383.3</v>
+        <v>87.537999999999997</v>
       </c>
       <c r="G38">
-        <v>2478.4</v>
+        <v>885.21400000000006</v>
       </c>
       <c r="H38">
-        <v>7235.8</v>
+        <v>2152.84</v>
       </c>
       <c r="I38">
-        <v>351.9</v>
+        <v>126.813</v>
       </c>
       <c r="J38">
-        <v>2476.8000000000002</v>
+        <v>548.74900000000002</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>723.8</v>
+        <v>370.95699999999999</v>
       </c>
       <c r="O38">
-        <v>4164.8</v>
+        <v>1253.9949999999999</v>
       </c>
       <c r="P38">
-        <v>2734.5</v>
+        <v>680.87800000000004</v>
       </c>
       <c r="Q38">
-        <v>-58.8</v>
+        <v>36.44</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="T38">
-        <v>3071</v>
+        <v>898.84500000000003</v>
       </c>
       <c r="U38">
-        <v>679.5</v>
+        <v>260.72699999999998</v>
       </c>
       <c r="V38">
-        <v>329.2</v>
+        <v>96.837999999999994</v>
       </c>
       <c r="W38">
-        <v>-74.8</v>
+        <v>-15.442</v>
       </c>
       <c r="X38">
-        <v>-109.7</v>
+        <v>-14.723000000000001</v>
       </c>
       <c r="Y38">
-        <v>193.6</v>
+        <v>22.503</v>
       </c>
       <c r="Z38">
-        <v>-146.1</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>136.19999999999999</v>
+        <v>58.683</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>141.69999999999999</v>
+        <v>19.193999999999999</v>
       </c>
       <c r="D39">
-        <v>1708.7</v>
+        <v>550.73199999999997</v>
       </c>
       <c r="E39">
-        <v>879.5</v>
+        <v>275.72699999999998</v>
       </c>
       <c r="F39">
-        <v>365.8</v>
+        <v>86.799000000000007</v>
       </c>
       <c r="G39">
-        <v>2613.6</v>
+        <v>873.74800000000005</v>
       </c>
       <c r="H39">
-        <v>7347.6</v>
+        <v>2164.2950000000001</v>
       </c>
       <c r="I39">
-        <v>389</v>
+        <v>158.27000000000001</v>
       </c>
       <c r="J39">
-        <v>2477.4</v>
+        <v>548.83600000000001</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-0.4</v>
+        <v>-0.153</v>
       </c>
       <c r="N39">
-        <v>744.6</v>
+        <v>369.43400000000003</v>
       </c>
       <c r="O39">
-        <v>4197.7</v>
+        <v>1258.6379999999999</v>
       </c>
       <c r="P39">
-        <v>2736.1</v>
+        <v>680.81200000000001</v>
       </c>
       <c r="Q39">
-        <v>84.5</v>
+        <v>-63.125999999999998</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>3149.9</v>
+        <v>905.65700000000004</v>
       </c>
       <c r="U39">
-        <v>764</v>
+        <v>197.601</v>
       </c>
       <c r="V39">
-        <v>236.7</v>
+        <v>14.504</v>
       </c>
       <c r="W39">
-        <v>-74.8</v>
+        <v>-15.451000000000001</v>
       </c>
       <c r="X39">
-        <v>-75.2</v>
+        <v>-13.368</v>
       </c>
       <c r="Y39">
-        <v>192.8</v>
+        <v>22.34</v>
       </c>
       <c r="Z39">
-        <v>-3.9</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>141.69999999999999</v>
+        <v>19.193999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>56.6</v>
+        <v>38.03</v>
       </c>
       <c r="D40">
-        <v>1541.6</v>
+        <v>615.45899999999995</v>
       </c>
       <c r="E40">
-        <v>817.3</v>
+        <v>308.66500000000002</v>
       </c>
       <c r="F40">
-        <v>334.9</v>
+        <v>131.66499999999999</v>
       </c>
       <c r="G40">
-        <v>2659</v>
+        <v>860.79600000000005</v>
       </c>
       <c r="H40">
-        <v>7272</v>
+        <v>2203.5189999999998</v>
       </c>
       <c r="I40">
-        <v>315.2</v>
+        <v>165.83500000000001</v>
       </c>
       <c r="J40">
-        <v>2478</v>
+        <v>559.92399999999998</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>683.6</v>
+        <v>397.02699999999999</v>
       </c>
       <c r="O40">
-        <v>4138.8999999999996</v>
+        <v>1282.366</v>
       </c>
       <c r="P40">
-        <v>2733.4</v>
+        <v>691.745</v>
       </c>
       <c r="Q40">
-        <v>89.3</v>
+        <v>-16.09</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>3133.1</v>
+        <v>921.15300000000002</v>
       </c>
       <c r="U40">
-        <v>853.3</v>
+        <v>181.511</v>
       </c>
       <c r="V40">
-        <v>226.8</v>
+        <v>94.08</v>
       </c>
       <c r="W40">
-        <v>-74.900000000000006</v>
+        <v>-15.46</v>
       </c>
       <c r="X40">
-        <v>-85.7</v>
+        <v>-17.465</v>
       </c>
       <c r="Y40">
-        <v>186.7</v>
+        <v>22.172999999999998</v>
       </c>
       <c r="Z40">
-        <v>27.1</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>56.7</v>
+        <v>38.03</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>139.1</v>
+        <v>93.32</v>
       </c>
       <c r="D41">
-        <v>1693.7</v>
+        <v>642.76400000000001</v>
       </c>
       <c r="E41">
-        <v>864.6</v>
+        <v>335</v>
       </c>
       <c r="F41">
-        <v>345.4</v>
+        <v>166.452</v>
       </c>
       <c r="G41">
-        <v>2743.7</v>
+        <v>813.01700000000005</v>
       </c>
       <c r="H41">
-        <v>7372.6</v>
+        <v>2190.0320000000002</v>
       </c>
       <c r="I41">
-        <v>352.1</v>
+        <v>169.94399999999999</v>
       </c>
       <c r="J41">
-        <v>2478.6999999999998</v>
+        <v>578.21100000000001</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>775.4</v>
+        <v>426.06299999999999</v>
       </c>
       <c r="O41">
-        <v>4167.2</v>
+        <v>1223.72</v>
       </c>
       <c r="P41">
-        <v>2735.3</v>
+        <v>709.87400000000002</v>
       </c>
       <c r="Q41">
-        <v>95.8</v>
+        <v>-8.6910000000000007</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>3205.4</v>
+        <v>966.31200000000001</v>
       </c>
       <c r="U41">
-        <v>949.1</v>
+        <v>172.82</v>
       </c>
       <c r="V41">
-        <v>298.2</v>
+        <v>102.45699999999999</v>
       </c>
       <c r="W41">
-        <v>-74.900000000000006</v>
+        <v>-15.455</v>
       </c>
       <c r="X41">
-        <v>-75.3</v>
+        <v>-36.423000000000002</v>
       </c>
       <c r="Y41">
-        <v>187</v>
+        <v>22.004000000000001</v>
       </c>
       <c r="Z41">
-        <v>-23.8</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>139.1</v>
+        <v>93.32</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>54.890999999999998</v>
+      </c>
+      <c r="D42">
+        <v>626.65099999999995</v>
+      </c>
+      <c r="E42">
+        <v>294.19200000000001</v>
+      </c>
+      <c r="F42">
+        <v>147.28399999999999</v>
+      </c>
+      <c r="G42">
+        <v>799.67700000000002</v>
+      </c>
+      <c r="H42">
+        <v>2225.91</v>
+      </c>
+      <c r="I42">
+        <v>155.16300000000001</v>
+      </c>
+      <c r="J42">
+        <v>549.09900000000005</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>404.61</v>
+      </c>
+      <c r="O42">
+        <v>1216.9090000000001</v>
+      </c>
+      <c r="P42">
+        <v>680.601</v>
+      </c>
+      <c r="Q42">
+        <v>23.736000000000001</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>8100</v>
+      </c>
+      <c r="T42">
+        <v>1009.001</v>
+      </c>
+      <c r="U42">
+        <v>196.55600000000001</v>
+      </c>
+      <c r="V42">
+        <v>138.87899999999999</v>
+      </c>
+      <c r="W42">
+        <v>-15.432</v>
+      </c>
+      <c r="X42">
+        <v>-25.521000000000001</v>
+      </c>
+      <c r="Y42">
+        <v>21.832000000000001</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>54.890999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>37.417000000000002</v>
+      </c>
+      <c r="D43">
+        <v>629.5</v>
+      </c>
+      <c r="E43">
+        <v>308.81599999999997</v>
+      </c>
+      <c r="F43">
+        <v>133.14099999999999</v>
+      </c>
+      <c r="G43">
+        <v>772.10400000000004</v>
+      </c>
+      <c r="H43">
+        <v>2220.9470000000001</v>
+      </c>
+      <c r="I43">
+        <v>167.822</v>
+      </c>
+      <c r="J43">
+        <v>549.18600000000004</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-0.16300000000000001</v>
+      </c>
+      <c r="N43">
+        <v>387.31099999999998</v>
+      </c>
+      <c r="O43">
+        <v>1200.451</v>
+      </c>
+      <c r="P43">
+        <v>680.52499999999998</v>
+      </c>
+      <c r="Q43">
+        <v>-23.542000000000002</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1020.496</v>
+      </c>
+      <c r="U43">
+        <v>173.01400000000001</v>
+      </c>
+      <c r="V43">
+        <v>63.95</v>
+      </c>
+      <c r="W43">
+        <v>-15.351000000000001</v>
+      </c>
+      <c r="X43">
+        <v>-21.004999999999999</v>
+      </c>
+      <c r="Y43">
+        <v>21.657</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>37.417000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>39.368000000000002</v>
+      </c>
+      <c r="D44">
+        <v>665.48099999999999</v>
+      </c>
+      <c r="E44">
+        <v>331.24900000000002</v>
+      </c>
+      <c r="F44">
+        <v>136.90100000000001</v>
+      </c>
+      <c r="G44">
+        <v>742.28800000000001</v>
+      </c>
+      <c r="H44">
+        <v>2259.181</v>
+      </c>
+      <c r="I44">
+        <v>189.77799999999999</v>
+      </c>
+      <c r="J44">
+        <v>549.27300000000002</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>425.73500000000001</v>
+      </c>
+      <c r="O44">
+        <v>1237.9760000000001</v>
+      </c>
+      <c r="P44">
+        <v>680.44600000000003</v>
+      </c>
+      <c r="Q44">
+        <v>-53.832999999999998</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1021.205</v>
+      </c>
+      <c r="U44">
+        <v>119.181</v>
+      </c>
+      <c r="V44">
+        <v>101.233</v>
+      </c>
+      <c r="W44">
+        <v>-20.443999999999999</v>
+      </c>
+      <c r="X44">
+        <v>-43.35</v>
+      </c>
+      <c r="Y44">
+        <v>21.478999999999999</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>39.368000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>41.777000000000001</v>
+      </c>
+      <c r="D45">
+        <v>670.82399999999996</v>
+      </c>
+      <c r="E45">
+        <v>338.51600000000002</v>
+      </c>
+      <c r="F45">
+        <v>137.74700000000001</v>
+      </c>
+      <c r="G45">
+        <v>669.91099999999994</v>
+      </c>
+      <c r="H45">
+        <v>2232.7429999999999</v>
+      </c>
+      <c r="I45">
+        <v>176.67699999999999</v>
+      </c>
+      <c r="J45">
+        <v>591.03</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>421.98</v>
+      </c>
+      <c r="O45">
+        <v>1259.192</v>
+      </c>
+      <c r="P45">
+        <v>722.03399999999999</v>
+      </c>
+      <c r="Q45">
+        <v>-79.063999999999993</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>973.55100000000004</v>
+      </c>
+      <c r="U45">
+        <v>40.116999999999997</v>
+      </c>
+      <c r="V45">
+        <v>71.634</v>
+      </c>
+      <c r="W45">
+        <v>-20.257999999999999</v>
+      </c>
+      <c r="X45">
+        <v>-67.754000000000005</v>
+      </c>
+      <c r="Y45">
+        <v>21.297999999999998</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>41.777000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>39.465000000000003</v>
+      </c>
+      <c r="D46">
+        <v>654.30600000000004</v>
+      </c>
+      <c r="E46">
+        <v>319.988</v>
+      </c>
+      <c r="F46">
+        <v>134.15700000000001</v>
+      </c>
+      <c r="G46">
+        <v>812.06299999999999</v>
+      </c>
+      <c r="H46">
+        <v>2412.4989999999998</v>
+      </c>
+      <c r="I46">
+        <v>154.85499999999999</v>
+      </c>
+      <c r="J46">
+        <v>793.44799999999998</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>376.5</v>
+      </c>
+      <c r="O46">
+        <v>1483.5889999999999</v>
+      </c>
+      <c r="P46">
+        <v>879.10900000000004</v>
+      </c>
+      <c r="Q46">
+        <v>116.196</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>8300</v>
+      </c>
+      <c r="T46">
+        <v>928.91</v>
+      </c>
+      <c r="U46">
+        <v>156.31299999999999</v>
+      </c>
+      <c r="V46">
+        <v>108.697</v>
+      </c>
+      <c r="W46">
+        <v>-19.959</v>
+      </c>
+      <c r="X46">
+        <v>96.516999999999996</v>
+      </c>
+      <c r="Y46">
+        <v>21.114000000000001</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>39.465000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>17.844000000000001</v>
+      </c>
+      <c r="D47">
+        <v>671.35699999999997</v>
+      </c>
+      <c r="E47">
+        <v>348.27199999999999</v>
+      </c>
+      <c r="F47">
+        <v>145.01900000000001</v>
+      </c>
+      <c r="G47">
+        <v>865.19600000000003</v>
+      </c>
+      <c r="H47">
+        <v>2492.3589999999999</v>
+      </c>
+      <c r="I47">
+        <v>153.02799999999999</v>
+      </c>
+      <c r="J47">
+        <v>789.78499999999997</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-3.9550000000000001</v>
+      </c>
+      <c r="N47">
+        <v>320.74599999999998</v>
+      </c>
+      <c r="O47">
+        <v>1570.415</v>
+      </c>
+      <c r="P47">
+        <v>867.87400000000002</v>
+      </c>
+      <c r="Q47">
+        <v>-72.296000000000006</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>921.94399999999996</v>
+      </c>
+      <c r="U47">
+        <v>84.016999999999996</v>
+      </c>
+      <c r="V47">
+        <v>34.945</v>
+      </c>
+      <c r="W47">
+        <v>-19.664999999999999</v>
+      </c>
+      <c r="X47">
+        <v>-35.502000000000002</v>
+      </c>
+      <c r="Y47">
+        <v>25.632999999999999</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>17.844000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>45.154000000000003</v>
+      </c>
+      <c r="D48">
+        <v>712.46799999999996</v>
+      </c>
+      <c r="E48">
+        <v>353.52699999999999</v>
+      </c>
+      <c r="F48">
+        <v>158.108</v>
+      </c>
+      <c r="G48">
+        <v>1285.6859999999999</v>
+      </c>
+      <c r="H48">
+        <v>2831.491</v>
+      </c>
+      <c r="I48">
+        <v>134.113</v>
+      </c>
+      <c r="J48">
+        <v>786.11</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>689.94799999999998</v>
+      </c>
+      <c r="O48">
+        <v>1908.771</v>
+      </c>
+      <c r="P48">
+        <v>1227.0940000000001</v>
+      </c>
+      <c r="Q48">
+        <v>431.10399999999998</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>922.72</v>
+      </c>
+      <c r="U48">
+        <v>515.12099999999998</v>
+      </c>
+      <c r="V48">
+        <v>115.1</v>
+      </c>
+      <c r="W48">
+        <v>-24.631</v>
+      </c>
+      <c r="X48">
+        <v>293.16199999999998</v>
+      </c>
+      <c r="Y48">
+        <v>25.393999999999998</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>45.154000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>39.790999999999997</v>
+      </c>
+      <c r="D49">
+        <v>723.47299999999996</v>
+      </c>
+      <c r="E49">
+        <v>379.67500000000001</v>
+      </c>
+      <c r="F49">
+        <v>162.55199999999999</v>
+      </c>
+      <c r="G49">
+        <v>924.83299999999997</v>
+      </c>
+      <c r="H49">
+        <v>2455.15</v>
+      </c>
+      <c r="I49">
+        <v>147.30799999999999</v>
+      </c>
+      <c r="J49">
+        <v>782.37</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>307.25700000000001</v>
+      </c>
+      <c r="O49">
+        <v>1515.0540000000001</v>
+      </c>
+      <c r="P49">
+        <v>823.47</v>
+      </c>
+      <c r="Q49">
+        <v>-374.21499999999997</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>940.096</v>
+      </c>
+      <c r="U49">
+        <v>140.90600000000001</v>
+      </c>
+      <c r="V49">
+        <v>101.76600000000001</v>
+      </c>
+      <c r="W49">
+        <v>-24.48</v>
+      </c>
+      <c r="X49">
+        <v>-451.33199999999999</v>
+      </c>
+      <c r="Y49">
+        <v>25.151</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>39.790999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>61.030999999999999</v>
+      </c>
+      <c r="D50">
+        <v>736.57899999999995</v>
+      </c>
+      <c r="E50">
+        <v>352.142</v>
+      </c>
+      <c r="F50">
+        <v>174.91200000000001</v>
+      </c>
+      <c r="G50">
+        <v>937.03300000000002</v>
+      </c>
+      <c r="H50">
+        <v>2453.768</v>
+      </c>
+      <c r="I50">
+        <v>117.51</v>
+      </c>
+      <c r="J50">
+        <v>778.63</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>259.846</v>
+      </c>
+      <c r="O50">
+        <v>1484.307</v>
+      </c>
+      <c r="P50">
+        <v>819.49800000000005</v>
+      </c>
+      <c r="Q50">
+        <v>66.486999999999995</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>8600</v>
+      </c>
+      <c r="T50">
+        <v>969.46100000000001</v>
+      </c>
+      <c r="U50">
+        <v>207.393</v>
+      </c>
+      <c r="V50">
+        <v>152.39400000000001</v>
+      </c>
+      <c r="W50">
+        <v>-49.075000000000003</v>
+      </c>
+      <c r="X50">
+        <v>-51.942999999999998</v>
+      </c>
+      <c r="Y50">
+        <v>24.904</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>61.030999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>62.293999999999997</v>
+      </c>
+      <c r="D51">
+        <v>755.20699999999999</v>
+      </c>
+      <c r="E51">
+        <v>391.68299999999999</v>
+      </c>
+      <c r="F51">
+        <v>185.24600000000001</v>
+      </c>
+      <c r="G51">
+        <v>1011.636</v>
+      </c>
+      <c r="H51">
+        <v>2515.9380000000001</v>
+      </c>
+      <c r="I51">
+        <v>142.85599999999999</v>
+      </c>
+      <c r="J51">
+        <v>774.89</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-3.9849999999999999</v>
+      </c>
+      <c r="N51">
+        <v>286.38</v>
+      </c>
+      <c r="O51">
+        <v>1514.1189999999999</v>
+      </c>
+      <c r="P51">
+        <v>815.52300000000002</v>
+      </c>
+      <c r="Q51">
+        <v>60.643999999999998</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1001.819</v>
+      </c>
+      <c r="U51">
+        <v>268.03699999999998</v>
+      </c>
+      <c r="V51">
+        <v>95.766999999999996</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-6.1630000000000003</v>
+      </c>
+      <c r="Y51">
+        <v>24.652999999999999</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>62.293999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>66.251999999999995</v>
+      </c>
+      <c r="D52">
+        <v>800.23</v>
+      </c>
+      <c r="E52">
+        <v>403.36700000000002</v>
+      </c>
+      <c r="F52">
+        <v>195.25</v>
+      </c>
+      <c r="G52">
+        <v>1102.3330000000001</v>
+      </c>
+      <c r="H52">
+        <v>2614.8209999999999</v>
+      </c>
+      <c r="I52">
+        <v>164.91</v>
+      </c>
+      <c r="J52">
+        <v>771.15099999999995</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>344.15</v>
+      </c>
+      <c r="O52">
+        <v>1563.5350000000001</v>
+      </c>
+      <c r="P52">
+        <v>811.54499999999996</v>
+      </c>
+      <c r="Q52">
+        <v>102.02</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1051.2860000000001</v>
+      </c>
+      <c r="U52">
+        <v>370.05700000000002</v>
+      </c>
+      <c r="V52">
+        <v>187.27</v>
+      </c>
+      <c r="W52">
+        <v>-30.658000000000001</v>
+      </c>
+      <c r="X52">
+        <v>-31.356999999999999</v>
+      </c>
+      <c r="Y52">
+        <v>24.396999999999998</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>66.251999999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>84.682000000000002</v>
+      </c>
+      <c r="D53">
+        <v>845.44</v>
+      </c>
+      <c r="E53">
+        <v>409.72500000000002</v>
+      </c>
+      <c r="F53">
+        <v>227.59899999999999</v>
+      </c>
+      <c r="G53">
+        <v>1135.9280000000001</v>
+      </c>
+      <c r="H53">
+        <v>2657.1089999999999</v>
+      </c>
+      <c r="I53">
+        <v>163.928</v>
+      </c>
+      <c r="J53">
+        <v>767.41099999999994</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>353.90199999999999</v>
+      </c>
+      <c r="O53">
+        <v>1557.981</v>
+      </c>
+      <c r="P53">
+        <v>807.56200000000001</v>
+      </c>
+      <c r="Q53">
+        <v>26.538</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1099.1279999999999</v>
+      </c>
+      <c r="U53">
+        <v>396.59500000000003</v>
+      </c>
+      <c r="V53">
+        <v>137.131</v>
+      </c>
+      <c r="W53">
+        <v>-39.225000000000001</v>
+      </c>
+      <c r="X53">
+        <v>-60.927</v>
+      </c>
+      <c r="Y53">
+        <v>24.138000000000002</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>84.682000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>228.072</v>
+      </c>
+      <c r="D54">
+        <v>1264.423</v>
+      </c>
+      <c r="E54">
+        <v>643.1</v>
+      </c>
+      <c r="F54">
+        <v>280.90499999999997</v>
+      </c>
+      <c r="G54">
+        <v>1531</v>
+      </c>
+      <c r="H54">
+        <v>5243.8</v>
+      </c>
+      <c r="I54">
+        <v>357.5</v>
+      </c>
+      <c r="J54">
+        <v>2508.8000000000002</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>660.6</v>
+      </c>
+      <c r="O54">
+        <v>3887</v>
+      </c>
+      <c r="P54">
+        <v>2572.6999999999998</v>
+      </c>
+      <c r="Q54">
+        <v>-205.602</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>13600</v>
+      </c>
+      <c r="T54">
+        <v>1356.8</v>
+      </c>
+      <c r="U54">
+        <v>191</v>
+      </c>
+      <c r="V54">
+        <v>188.03200000000001</v>
+      </c>
+      <c r="W54">
+        <v>-39.216999999999999</v>
+      </c>
+      <c r="X54">
+        <v>885.24699999999996</v>
+      </c>
+      <c r="Y54">
+        <v>23.9</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>228.072</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>90.1</v>
+      </c>
+      <c r="D55">
+        <v>1431.3</v>
+      </c>
+      <c r="E55">
+        <v>696.34400000000005</v>
+      </c>
+      <c r="F55">
+        <v>304.3</v>
+      </c>
+      <c r="G55">
+        <v>1561.3430000000001</v>
+      </c>
+      <c r="H55">
+        <v>5263.9480000000003</v>
+      </c>
+      <c r="I55">
+        <v>390.63</v>
+      </c>
+      <c r="J55">
+        <v>2475.393</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-66.3</v>
+      </c>
+      <c r="N55">
+        <v>643.43299999999999</v>
+      </c>
+      <c r="O55">
+        <v>3846.3649999999998</v>
+      </c>
+      <c r="P55">
+        <v>2506.5459999999998</v>
+      </c>
+      <c r="Q55">
+        <v>-5.3</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>13600</v>
+      </c>
+      <c r="T55">
+        <v>1417.5830000000001</v>
+      </c>
+      <c r="U55">
+        <v>185.70599999999999</v>
+      </c>
+      <c r="V55">
+        <v>149.30000000000001</v>
+      </c>
+      <c r="W55">
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="X55">
+        <v>-101</v>
+      </c>
+      <c r="Y55">
+        <v>23.606000000000002</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>90.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>99.5</v>
+      </c>
+      <c r="D56">
+        <v>1468.4</v>
+      </c>
+      <c r="E56">
+        <v>704.21799999999996</v>
+      </c>
+      <c r="F56">
+        <v>328.2</v>
+      </c>
+      <c r="G56">
+        <v>1574.249</v>
+      </c>
+      <c r="H56">
+        <v>5304.2370000000001</v>
+      </c>
+      <c r="I56">
+        <v>394.74299999999999</v>
+      </c>
+      <c r="J56">
+        <v>2425.4409999999998</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>657.91300000000001</v>
+      </c>
+      <c r="O56">
+        <v>3821.6179999999999</v>
+      </c>
+      <c r="P56">
+        <v>2456.3389999999999</v>
+      </c>
+      <c r="Q56">
+        <v>-23.7</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>14000</v>
+      </c>
+      <c r="T56">
+        <v>1482.6189999999999</v>
+      </c>
+      <c r="U56">
+        <v>161.99100000000001</v>
+      </c>
+      <c r="V56">
+        <v>184.8</v>
+      </c>
+      <c r="W56">
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="X56">
+        <v>-90.8</v>
+      </c>
+      <c r="Y56">
+        <v>23.332999999999998</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>104.5</v>
+      </c>
+      <c r="D57">
+        <v>1518.9</v>
+      </c>
+      <c r="E57">
+        <v>717.947</v>
+      </c>
+      <c r="F57">
+        <v>342</v>
+      </c>
+      <c r="G57">
+        <v>1597.7070000000001</v>
+      </c>
+      <c r="H57">
+        <v>5330.7489999999998</v>
+      </c>
+      <c r="I57">
+        <v>387.85399999999998</v>
+      </c>
+      <c r="J57">
+        <v>2350.4839999999999</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>690.03499999999997</v>
+      </c>
+      <c r="O57">
+        <v>3778.71</v>
+      </c>
+      <c r="P57">
+        <v>2381.1210000000001</v>
+      </c>
+      <c r="Q57">
+        <v>-7.7</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>14000</v>
+      </c>
+      <c r="T57">
+        <v>1552.039</v>
+      </c>
+      <c r="U57">
+        <v>154.32300000000001</v>
+      </c>
+      <c r="V57">
+        <v>222.6</v>
+      </c>
+      <c r="W57">
+        <v>-39.4</v>
+      </c>
+      <c r="X57">
+        <v>-118</v>
+      </c>
+      <c r="Y57">
+        <v>23.055</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>104.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>98.5</v>
+      </c>
+      <c r="D58">
+        <v>1433.9</v>
+      </c>
+      <c r="E58">
+        <v>646.1</v>
+      </c>
+      <c r="F58">
+        <v>313</v>
+      </c>
+      <c r="G58">
+        <v>1502.9</v>
+      </c>
+      <c r="H58">
+        <v>5272.8</v>
+      </c>
+      <c r="I58">
+        <v>330.5</v>
+      </c>
+      <c r="J58">
+        <v>2348.9</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>611</v>
+      </c>
+      <c r="O58">
+        <v>3751.4</v>
+      </c>
+      <c r="P58">
+        <v>2379.3000000000002</v>
+      </c>
+      <c r="Q58">
+        <v>-29.4</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>14000</v>
+      </c>
+      <c r="T58">
+        <v>1521.4</v>
+      </c>
+      <c r="U58">
+        <v>124.9</v>
+      </c>
+      <c r="V58">
+        <v>179.4</v>
+      </c>
+      <c r="W58">
+        <v>-39.4</v>
+      </c>
+      <c r="X58">
+        <v>-41.3</v>
+      </c>
+      <c r="Y58">
+        <v>22.8</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>90.8</v>
+      </c>
+      <c r="D59">
+        <v>1425.7</v>
+      </c>
+      <c r="E59">
+        <v>676.7</v>
+      </c>
+      <c r="F59">
+        <v>286</v>
+      </c>
+      <c r="G59">
+        <v>1614.8</v>
+      </c>
+      <c r="H59">
+        <v>5385.4</v>
+      </c>
+      <c r="I59">
+        <v>352.7</v>
+      </c>
+      <c r="J59">
+        <v>2347.4</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-1.9</v>
+      </c>
+      <c r="N59">
+        <v>621.29999999999995</v>
+      </c>
+      <c r="O59">
+        <v>3829.1</v>
+      </c>
+      <c r="P59">
+        <v>2377.5</v>
+      </c>
+      <c r="Q59">
+        <v>1.5</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1556.3</v>
+      </c>
+      <c r="U59">
+        <v>126.4</v>
+      </c>
+      <c r="V59">
+        <v>108.3</v>
+      </c>
+      <c r="W59">
+        <v>-39.4</v>
+      </c>
+      <c r="X59">
+        <v>-49.2</v>
+      </c>
+      <c r="Y59">
+        <v>22.5</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>114</v>
+      </c>
+      <c r="D60">
+        <v>1454.3</v>
+      </c>
+      <c r="E60">
+        <v>708</v>
+      </c>
+      <c r="F60">
+        <v>317.7</v>
+      </c>
+      <c r="G60">
+        <v>1657.4</v>
+      </c>
+      <c r="H60">
+        <v>5409.9</v>
+      </c>
+      <c r="I60">
+        <v>339.3</v>
+      </c>
+      <c r="J60">
+        <v>2345.8000000000002</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>606.20000000000005</v>
+      </c>
+      <c r="O60">
+        <v>3818.9</v>
+      </c>
+      <c r="P60">
+        <v>2375.6</v>
+      </c>
+      <c r="Q60">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1591</v>
+      </c>
+      <c r="U60">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="V60">
+        <v>196.2</v>
+      </c>
+      <c r="W60">
+        <v>-54.1</v>
+      </c>
+      <c r="X60">
+        <v>-92.6</v>
+      </c>
+      <c r="Y60">
+        <v>22.2</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>127.8</v>
+      </c>
+      <c r="D61">
+        <v>1470.8</v>
+      </c>
+      <c r="E61">
+        <v>683.5</v>
+      </c>
+      <c r="F61">
+        <v>328.3</v>
+      </c>
+      <c r="G61">
+        <v>1679.3</v>
+      </c>
+      <c r="H61">
+        <v>5422.2</v>
+      </c>
+      <c r="I61">
+        <v>337</v>
+      </c>
+      <c r="J61">
+        <v>2319.3000000000002</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>628.4</v>
+      </c>
+      <c r="O61">
+        <v>3807.2</v>
+      </c>
+      <c r="P61">
+        <v>2348.8000000000002</v>
+      </c>
+      <c r="Q61">
+        <v>23.2</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1615</v>
+      </c>
+      <c r="U61">
+        <v>186.9</v>
+      </c>
+      <c r="V61">
+        <v>237.5</v>
+      </c>
+      <c r="W61">
+        <v>-53.8</v>
+      </c>
+      <c r="X61">
+        <v>-135.4</v>
+      </c>
+      <c r="Y61">
+        <v>21.9</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>127.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>104.2</v>
+      </c>
+      <c r="D62">
+        <v>1390.9</v>
+      </c>
+      <c r="E62">
+        <v>636.5</v>
+      </c>
+      <c r="F62">
+        <v>285.10000000000002</v>
+      </c>
+      <c r="G62">
+        <v>1554.5</v>
+      </c>
+      <c r="H62">
+        <v>5272.3</v>
+      </c>
+      <c r="I62">
+        <v>294.2</v>
+      </c>
+      <c r="J62">
+        <v>2290.4</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>561.9</v>
+      </c>
+      <c r="O62">
+        <v>3639</v>
+      </c>
+      <c r="P62">
+        <v>2319.6999999999998</v>
+      </c>
+      <c r="Q62">
+        <v>-2.7</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>13000</v>
+      </c>
+      <c r="T62">
+        <v>1633.3</v>
+      </c>
+      <c r="U62">
+        <v>184.2</v>
+      </c>
+      <c r="V62">
+        <v>220.6</v>
+      </c>
+      <c r="W62">
+        <v>-53.5</v>
+      </c>
+      <c r="X62">
+        <v>-128</v>
+      </c>
+      <c r="Y62">
+        <v>21.6</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>104.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>103.7</v>
+      </c>
+      <c r="D63">
+        <v>1401</v>
+      </c>
+      <c r="E63">
+        <v>631.4</v>
+      </c>
+      <c r="F63">
+        <v>299.8</v>
+      </c>
+      <c r="G63">
+        <v>1528.9</v>
+      </c>
+      <c r="H63">
+        <v>5227.3</v>
+      </c>
+      <c r="I63">
+        <v>309</v>
+      </c>
+      <c r="J63">
+        <v>2289.3000000000002</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-1.9</v>
+      </c>
+      <c r="N63">
+        <v>545.29999999999995</v>
+      </c>
+      <c r="O63">
+        <v>3636.5</v>
+      </c>
+      <c r="P63">
+        <v>2318.3000000000002</v>
+      </c>
+      <c r="Q63">
+        <v>-21.9</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1590.8</v>
+      </c>
+      <c r="U63">
+        <v>162.30000000000001</v>
+      </c>
+      <c r="V63">
+        <v>191</v>
+      </c>
+      <c r="W63">
+        <v>-53.1</v>
+      </c>
+      <c r="X63">
+        <v>-157.4</v>
+      </c>
+      <c r="Y63">
+        <v>21.3</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>103.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>115.9</v>
+      </c>
+      <c r="D64">
+        <v>1417.4</v>
+      </c>
+      <c r="E64">
+        <v>663.4</v>
+      </c>
+      <c r="F64">
+        <v>320.10000000000002</v>
+      </c>
+      <c r="G64">
+        <v>1609.9</v>
+      </c>
+      <c r="H64">
+        <v>5296.1</v>
+      </c>
+      <c r="I64">
+        <v>308.39999999999998</v>
+      </c>
+      <c r="J64">
+        <v>2288.1</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>551.5</v>
+      </c>
+      <c r="O64">
+        <v>3633.8</v>
+      </c>
+      <c r="P64">
+        <v>2316.8000000000002</v>
+      </c>
+      <c r="Q64">
+        <v>51.3</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>1662.3</v>
+      </c>
+      <c r="U64">
+        <v>213.6</v>
+      </c>
+      <c r="V64">
+        <v>185.2</v>
+      </c>
+      <c r="W64">
+        <v>-51.8</v>
+      </c>
+      <c r="X64">
+        <v>-61.7</v>
+      </c>
+      <c r="Y64">
+        <v>21</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>115.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>119.3</v>
+      </c>
+      <c r="D65">
+        <v>1484</v>
+      </c>
+      <c r="E65">
+        <v>713.2</v>
+      </c>
+      <c r="F65">
+        <v>330.5</v>
+      </c>
+      <c r="G65">
+        <v>1747</v>
+      </c>
+      <c r="H65">
+        <v>5747.2</v>
+      </c>
+      <c r="I65">
+        <v>327</v>
+      </c>
+      <c r="J65">
+        <v>2625.8</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>637.5</v>
+      </c>
+      <c r="O65">
+        <v>4017.2</v>
+      </c>
+      <c r="P65">
+        <v>2673.5</v>
+      </c>
+      <c r="Q65">
+        <v>66.2</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>1730</v>
+      </c>
+      <c r="U65">
+        <v>279.8</v>
+      </c>
+      <c r="V65">
+        <v>217.3</v>
+      </c>
+      <c r="W65">
+        <v>-51.8</v>
+      </c>
+      <c r="X65">
+        <v>303.89999999999998</v>
+      </c>
+      <c r="Y65">
+        <v>20.7</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>119.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>110.7</v>
+      </c>
+      <c r="D66">
+        <v>1476.6</v>
+      </c>
+      <c r="E66">
+        <v>689.2</v>
+      </c>
+      <c r="F66">
+        <v>330.1</v>
+      </c>
+      <c r="G66">
+        <v>1696.3</v>
+      </c>
+      <c r="H66">
+        <v>5777</v>
+      </c>
+      <c r="I66">
+        <v>323.8</v>
+      </c>
+      <c r="J66">
+        <v>2620</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>625.4</v>
+      </c>
+      <c r="O66">
+        <v>4017.2</v>
+      </c>
+      <c r="P66">
+        <v>2667.4</v>
+      </c>
+      <c r="Q66">
+        <v>-40.5</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>14000</v>
+      </c>
+      <c r="T66">
+        <v>1759.8</v>
+      </c>
+      <c r="U66">
+        <v>239.3</v>
+      </c>
+      <c r="V66">
+        <v>213.4</v>
+      </c>
+      <c r="W66">
+        <v>-59.4</v>
+      </c>
+      <c r="X66">
+        <v>-67</v>
+      </c>
+      <c r="Y66">
+        <v>20.3</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>110.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>117.4</v>
+      </c>
+      <c r="D67">
+        <v>1536.5</v>
+      </c>
+      <c r="E67">
+        <v>733.3</v>
+      </c>
+      <c r="F67">
+        <v>338.2</v>
+      </c>
+      <c r="G67">
+        <v>1779.1</v>
+      </c>
+      <c r="H67">
+        <v>5843.4</v>
+      </c>
+      <c r="I67">
+        <v>367.3</v>
+      </c>
+      <c r="J67">
+        <v>2458.4</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-31.7</v>
+      </c>
+      <c r="N67">
+        <v>776</v>
+      </c>
+      <c r="O67">
+        <v>4018.7</v>
+      </c>
+      <c r="P67">
+        <v>2636.2</v>
+      </c>
+      <c r="Q67">
+        <v>14.7</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>1824.7</v>
+      </c>
+      <c r="U67">
+        <v>254</v>
+      </c>
+      <c r="V67">
+        <v>164.1</v>
+      </c>
+      <c r="W67">
+        <v>-59.4</v>
+      </c>
+      <c r="X67">
+        <v>-91.6</v>
+      </c>
+      <c r="Y67">
+        <v>20</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>117.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="D68">
+        <v>1584</v>
+      </c>
+      <c r="E68">
+        <v>755.2</v>
+      </c>
+      <c r="F68">
+        <v>364.3</v>
+      </c>
+      <c r="G68">
+        <v>1863.4</v>
+      </c>
+      <c r="H68">
+        <v>5903.2</v>
+      </c>
+      <c r="I68">
+        <v>349.2</v>
+      </c>
+      <c r="J68">
+        <v>2457.3000000000002</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>760.2</v>
+      </c>
+      <c r="O68">
+        <v>3996.6</v>
+      </c>
+      <c r="P68">
+        <v>2634.8</v>
+      </c>
+      <c r="Q68">
+        <v>67</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>1906.6</v>
+      </c>
+      <c r="U68">
+        <v>321</v>
+      </c>
+      <c r="V68">
+        <v>221.5</v>
+      </c>
+      <c r="W68">
+        <v>-59.4</v>
+      </c>
+      <c r="X68">
+        <v>-71.400000000000006</v>
+      </c>
+      <c r="Y68">
+        <v>19.7</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>143.19999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>139.1</v>
+      </c>
+      <c r="D69">
+        <v>1640.1</v>
+      </c>
+      <c r="E69">
+        <v>831.3</v>
+      </c>
+      <c r="F69">
+        <v>400</v>
+      </c>
+      <c r="G69">
+        <v>2001.8</v>
+      </c>
+      <c r="H69">
+        <v>6027.2</v>
+      </c>
+      <c r="I69">
+        <v>379.5</v>
+      </c>
+      <c r="J69">
+        <v>2456.3000000000002</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>824.3</v>
+      </c>
+      <c r="O69">
+        <v>4033</v>
+      </c>
+      <c r="P69">
+        <v>2633.4</v>
+      </c>
+      <c r="Q69">
+        <v>49.5</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>1994.2</v>
+      </c>
+      <c r="U69">
+        <v>370.5</v>
+      </c>
+      <c r="V69">
+        <v>197.7</v>
+      </c>
+      <c r="W69">
+        <v>-59.4</v>
+      </c>
+      <c r="X69">
+        <v>-61.5</v>
+      </c>
+      <c r="Y69">
+        <v>19.3</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>139.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>268.89999999999998</v>
+      </c>
+      <c r="D70">
+        <v>1684.3</v>
+      </c>
+      <c r="E70">
+        <v>830.7</v>
+      </c>
+      <c r="F70">
+        <v>379.4</v>
+      </c>
+      <c r="G70">
+        <v>1915.1</v>
+      </c>
+      <c r="H70">
+        <v>6197.5</v>
+      </c>
+      <c r="I70">
+        <v>402.9</v>
+      </c>
+      <c r="J70">
+        <v>2480.4</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>832.7</v>
+      </c>
+      <c r="O70">
+        <v>4014.9</v>
+      </c>
+      <c r="P70">
+        <v>2650.7</v>
+      </c>
+      <c r="Q70">
+        <v>-153.6</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>14600</v>
+      </c>
+      <c r="T70">
+        <v>2182.6</v>
+      </c>
+      <c r="U70">
+        <v>216.9</v>
+      </c>
+      <c r="V70">
+        <v>272.8</v>
+      </c>
+      <c r="W70">
+        <v>-59.4</v>
+      </c>
+      <c r="X70">
+        <v>-44.9</v>
+      </c>
+      <c r="Y70">
+        <v>19</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>268.89999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>140.1</v>
+      </c>
+      <c r="D71">
+        <v>1690.6</v>
+      </c>
+      <c r="E71">
+        <v>860.2</v>
+      </c>
+      <c r="F71">
+        <v>364.1</v>
+      </c>
+      <c r="G71">
+        <v>1832.6</v>
+      </c>
+      <c r="H71">
+        <v>6139.8</v>
+      </c>
+      <c r="I71">
+        <v>427.3</v>
+      </c>
+      <c r="J71">
+        <v>2481.1999999999998</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-150.30000000000001</v>
+      </c>
+      <c r="N71">
+        <v>673.6</v>
+      </c>
+      <c r="O71">
+        <v>3866</v>
+      </c>
+      <c r="P71">
+        <v>2501.1999999999998</v>
+      </c>
+      <c r="Q71">
+        <v>-114.5</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>2273.8000000000002</v>
+      </c>
+      <c r="U71">
+        <v>102.4</v>
+      </c>
+      <c r="V71">
+        <v>202.5</v>
+      </c>
+      <c r="W71">
+        <v>-59.4</v>
+      </c>
+      <c r="X71">
+        <v>-209.8</v>
+      </c>
+      <c r="Y71">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>140.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>186.6</v>
+      </c>
+      <c r="D72">
+        <v>1767.5</v>
+      </c>
+      <c r="E72">
+        <v>920</v>
+      </c>
+      <c r="F72">
+        <v>426.6</v>
+      </c>
+      <c r="G72">
+        <v>1956.6</v>
+      </c>
+      <c r="H72">
+        <v>6315.6</v>
+      </c>
+      <c r="I72">
+        <v>431.7</v>
+      </c>
+      <c r="J72">
+        <v>2482.1</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>715.8</v>
+      </c>
+      <c r="O72">
+        <v>3927.6</v>
+      </c>
+      <c r="P72">
+        <v>2501.8000000000002</v>
+      </c>
+      <c r="Q72">
+        <v>97.2</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>2388</v>
+      </c>
+      <c r="U72">
+        <v>199.6</v>
+      </c>
+      <c r="V72">
+        <v>331</v>
+      </c>
+      <c r="W72">
+        <v>-59.5</v>
+      </c>
+      <c r="X72">
+        <v>-67.5</v>
+      </c>
+      <c r="Y72">
+        <v>18.3</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>186.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>206.7</v>
+      </c>
+      <c r="D73">
+        <v>1809.9</v>
+      </c>
+      <c r="E73">
+        <v>986.2</v>
+      </c>
+      <c r="F73">
+        <v>443.5</v>
+      </c>
+      <c r="G73">
+        <v>2114.6999999999998</v>
+      </c>
+      <c r="H73">
+        <v>6500</v>
+      </c>
+      <c r="I73">
+        <v>438.9</v>
+      </c>
+      <c r="J73">
+        <v>2482.9</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>766.5</v>
+      </c>
+      <c r="O73">
+        <v>3969.8</v>
+      </c>
+      <c r="P73">
+        <v>2502.1999999999998</v>
+      </c>
+      <c r="Q73">
+        <v>94.2</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>2530.1999999999998</v>
+      </c>
+      <c r="U73">
+        <v>293.8</v>
+      </c>
+      <c r="V73">
+        <v>301</v>
+      </c>
+      <c r="W73">
+        <v>-74.5</v>
+      </c>
+      <c r="X73">
+        <v>-75</v>
+      </c>
+      <c r="Y73">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>206.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>204.6</v>
+      </c>
+      <c r="D74">
+        <v>1746.5</v>
+      </c>
+      <c r="E74">
+        <v>901.9</v>
+      </c>
+      <c r="F74">
+        <v>426.4</v>
+      </c>
+      <c r="G74">
+        <v>2115.1</v>
+      </c>
+      <c r="H74">
+        <v>6569.7</v>
+      </c>
+      <c r="I74">
+        <v>382.2</v>
+      </c>
+      <c r="J74">
+        <v>2483.6999999999998</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>693.6</v>
+      </c>
+      <c r="O74">
+        <v>3897.3</v>
+      </c>
+      <c r="P74">
+        <v>2502.6999999999998</v>
+      </c>
+      <c r="Q74">
+        <v>67.7</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>15000</v>
+      </c>
+      <c r="T74">
+        <v>2672.4</v>
+      </c>
+      <c r="U74">
+        <v>361.5</v>
+      </c>
+      <c r="V74">
+        <v>345.6</v>
+      </c>
+      <c r="W74">
+        <v>-74.7</v>
+      </c>
+      <c r="X74">
+        <v>-75</v>
+      </c>
+      <c r="Y74">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>204.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>186.8</v>
+      </c>
+      <c r="D75">
+        <v>1733.7</v>
+      </c>
+      <c r="E75">
+        <v>930.3</v>
+      </c>
+      <c r="F75">
+        <v>421.4</v>
+      </c>
+      <c r="G75">
+        <v>2262.4</v>
+      </c>
+      <c r="H75">
+        <v>6928.6</v>
+      </c>
+      <c r="I75">
+        <v>405.1</v>
+      </c>
+      <c r="J75">
+        <v>2484.6</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-0.3</v>
+      </c>
+      <c r="N75">
+        <v>740.7</v>
+      </c>
+      <c r="O75">
+        <v>4134</v>
+      </c>
+      <c r="P75">
+        <v>2725.9</v>
+      </c>
+      <c r="Q75">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>2794.6</v>
+      </c>
+      <c r="U75">
+        <v>442.4</v>
+      </c>
+      <c r="V75">
+        <v>236</v>
+      </c>
+      <c r="W75">
+        <v>-74.7</v>
+      </c>
+      <c r="X75">
+        <v>-75</v>
+      </c>
+      <c r="Y75">
+        <v>182.6</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>186.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>193.6</v>
+      </c>
+      <c r="D76">
+        <v>1759.9</v>
+      </c>
+      <c r="E76">
+        <v>947</v>
+      </c>
+      <c r="F76">
+        <v>427.9</v>
+      </c>
+      <c r="G76">
+        <v>2402.6999999999998</v>
+      </c>
+      <c r="H76">
+        <v>7074.4</v>
+      </c>
+      <c r="I76">
+        <v>382.8</v>
+      </c>
+      <c r="J76">
+        <v>2485.4</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>729.6</v>
+      </c>
+      <c r="O76">
+        <v>4153.2</v>
+      </c>
+      <c r="P76">
+        <v>2747</v>
+      </c>
+      <c r="Q76">
+        <v>127</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>2921.2</v>
+      </c>
+      <c r="U76">
+        <v>569.4</v>
+      </c>
+      <c r="V76">
+        <v>302.39999999999998</v>
+      </c>
+      <c r="W76">
+        <v>-74.599999999999994</v>
+      </c>
+      <c r="X76">
+        <v>-82.7</v>
+      </c>
+      <c r="Y76">
+        <v>200.2</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>193.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>179.8</v>
+      </c>
+      <c r="D77">
+        <v>1750.7</v>
+      </c>
+      <c r="E77">
+        <v>932.3</v>
+      </c>
+      <c r="F77">
+        <v>411.4</v>
+      </c>
+      <c r="G77">
+        <v>2531.3000000000002</v>
+      </c>
+      <c r="H77">
+        <v>7191.1</v>
+      </c>
+      <c r="I77">
+        <v>385.5</v>
+      </c>
+      <c r="J77">
+        <v>2486.3000000000002</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>770.7</v>
+      </c>
+      <c r="O77">
+        <v>4156.3999999999996</v>
+      </c>
+      <c r="P77">
+        <v>2741.9</v>
+      </c>
+      <c r="Q77">
+        <v>168.9</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>3034.7</v>
+      </c>
+      <c r="U77">
+        <v>738.3</v>
+      </c>
+      <c r="V77">
+        <v>339.8</v>
+      </c>
+      <c r="W77">
+        <v>-74.599999999999994</v>
+      </c>
+      <c r="X77">
+        <v>-75.400000000000006</v>
+      </c>
+      <c r="Y77">
+        <v>193.7</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>179.8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="D78">
+        <v>1720</v>
+      </c>
+      <c r="E78">
+        <v>845.6</v>
+      </c>
+      <c r="F78">
+        <v>383.3</v>
+      </c>
+      <c r="G78">
+        <v>2478.4</v>
+      </c>
+      <c r="H78">
+        <v>7235.8</v>
+      </c>
+      <c r="I78">
+        <v>351.9</v>
+      </c>
+      <c r="J78">
+        <v>2476.8000000000002</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>723.8</v>
+      </c>
+      <c r="O78">
+        <v>4164.8</v>
+      </c>
+      <c r="P78">
+        <v>2734.5</v>
+      </c>
+      <c r="Q78">
+        <v>-58.8</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>15500</v>
+      </c>
+      <c r="T78">
+        <v>3071</v>
+      </c>
+      <c r="U78">
+        <v>679.5</v>
+      </c>
+      <c r="V78">
+        <v>329.2</v>
+      </c>
+      <c r="W78">
+        <v>-74.8</v>
+      </c>
+      <c r="X78">
+        <v>-109.7</v>
+      </c>
+      <c r="Y78">
+        <v>193.6</v>
+      </c>
+      <c r="Z78">
+        <v>-146.1</v>
+      </c>
+      <c r="AA78">
+        <v>136.19999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="D79">
+        <v>1708.7</v>
+      </c>
+      <c r="E79">
+        <v>879.5</v>
+      </c>
+      <c r="F79">
+        <v>365.8</v>
+      </c>
+      <c r="G79">
+        <v>2613.6</v>
+      </c>
+      <c r="H79">
+        <v>7347.6</v>
+      </c>
+      <c r="I79">
+        <v>389</v>
+      </c>
+      <c r="J79">
+        <v>2477.4</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-0.4</v>
+      </c>
+      <c r="N79">
+        <v>744.6</v>
+      </c>
+      <c r="O79">
+        <v>4197.7</v>
+      </c>
+      <c r="P79">
+        <v>2736.1</v>
+      </c>
+      <c r="Q79">
+        <v>84.5</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>3149.9</v>
+      </c>
+      <c r="U79">
+        <v>764</v>
+      </c>
+      <c r="V79">
+        <v>236.7</v>
+      </c>
+      <c r="W79">
+        <v>-74.8</v>
+      </c>
+      <c r="X79">
+        <v>-75.2</v>
+      </c>
+      <c r="Y79">
+        <v>192.8</v>
+      </c>
+      <c r="Z79">
+        <v>-3.9</v>
+      </c>
+      <c r="AA79">
+        <v>141.69999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>56.6</v>
+      </c>
+      <c r="D80">
+        <v>1541.6</v>
+      </c>
+      <c r="E80">
+        <v>817.3</v>
+      </c>
+      <c r="F80">
+        <v>334.9</v>
+      </c>
+      <c r="G80">
+        <v>2659</v>
+      </c>
+      <c r="H80">
+        <v>7272</v>
+      </c>
+      <c r="I80">
+        <v>315.2</v>
+      </c>
+      <c r="J80">
+        <v>2478</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>683.6</v>
+      </c>
+      <c r="O80">
+        <v>4138.8999999999996</v>
+      </c>
+      <c r="P80">
+        <v>2733.4</v>
+      </c>
+      <c r="Q80">
+        <v>89.3</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>3133.1</v>
+      </c>
+      <c r="U80">
+        <v>853.3</v>
+      </c>
+      <c r="V80">
+        <v>226.8</v>
+      </c>
+      <c r="W80">
+        <v>-74.900000000000006</v>
+      </c>
+      <c r="X80">
+        <v>-85.7</v>
+      </c>
+      <c r="Y80">
+        <v>186.7</v>
+      </c>
+      <c r="Z80">
+        <v>27.1</v>
+      </c>
+      <c r="AA80">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>139.1</v>
+      </c>
+      <c r="D81">
+        <v>1693.7</v>
+      </c>
+      <c r="E81">
+        <v>864.6</v>
+      </c>
+      <c r="F81">
+        <v>345.4</v>
+      </c>
+      <c r="G81">
+        <v>2743.7</v>
+      </c>
+      <c r="H81">
+        <v>7372.6</v>
+      </c>
+      <c r="I81">
+        <v>352.1</v>
+      </c>
+      <c r="J81">
+        <v>2478.6999999999998</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>775.4</v>
+      </c>
+      <c r="O81">
+        <v>4167.2</v>
+      </c>
+      <c r="P81">
+        <v>2735.3</v>
+      </c>
+      <c r="Q81">
+        <v>95.8</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>3205.4</v>
+      </c>
+      <c r="U81">
+        <v>949.1</v>
+      </c>
+      <c r="V81">
+        <v>298.2</v>
+      </c>
+      <c r="W81">
+        <v>-74.900000000000006</v>
+      </c>
+      <c r="X81">
+        <v>-75.3</v>
+      </c>
+      <c r="Y81">
+        <v>187</v>
+      </c>
+      <c r="Z81">
+        <v>-23.8</v>
+      </c>
+      <c r="AA81">
+        <v>139.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>123.6</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1714.2</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>832.4</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>344.4</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2750.3</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>7433.2</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>387</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>2479.4</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>782.6</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>4186.8999999999996</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>2737.9</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>25.5</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>15200</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>3246.3</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>974.6</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>271.10000000000002</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-75</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-75.400000000000006</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>188</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-2.5</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>123.6</v>
       </c>
     </row>
